--- a/SciMark2 Results.xlsx
+++ b/SciMark2 Results.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="9480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="9480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Original Run" sheetId="1" r:id="rId1"/>
+    <sheet name="Sampling" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
+  <pivotCaches>
+    <pivotCache cacheId="46" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="62">
   <si>
     <t>Machine</t>
   </si>
@@ -94,11 +98,131 @@
   <si>
     <t>GO</t>
   </si>
+  <si>
+    <t>UbuntuVM</t>
+  </si>
+  <si>
+    <t>GCC</t>
+  </si>
+  <si>
+    <t>Cygwin</t>
+  </si>
+  <si>
+    <t>Wpf2013</t>
+  </si>
+  <si>
+    <t>CSharp2013</t>
+  </si>
+  <si>
+    <t>CPP2013</t>
+  </si>
+  <si>
+    <t>CPPCLI2013</t>
+  </si>
+  <si>
+    <t>CSharp2015</t>
+  </si>
+  <si>
+    <t>CPP2015</t>
+  </si>
+  <si>
+    <t>CPPCLI2015</t>
+  </si>
+  <si>
+    <t>CSharpCoreCLR2015</t>
+  </si>
+  <si>
+    <t>Win10VM</t>
+  </si>
+  <si>
+    <t>UWP2015</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Scimark2 Composite</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>.Net 4.6.1</t>
+  </si>
+  <si>
+    <t>Unmanaged</t>
+  </si>
+  <si>
+    <t>C++/CLI</t>
+  </si>
+  <si>
+    <t>.Net Core</t>
+  </si>
+  <si>
+    <t>.Net Native</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>VS2013</t>
+  </si>
+  <si>
+    <t>VS2015</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Scimark2 Composite</t>
+  </si>
+  <si>
+    <t>StdDev of Scimark2 Composite</t>
+  </si>
+  <si>
+    <t>Count of Scimark2 Composite</t>
+  </si>
+  <si>
+    <t>GCC GO</t>
+  </si>
+  <si>
+    <t>Win10RCVM</t>
+  </si>
+  <si>
+    <t>Host Compiler</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Win10VMDay2</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,9 +252,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -146,6 +289,1313 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steven Davis" refreshedDate="42625.67879085648" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="96">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H97" sheet="Sampling"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="Context" numFmtId="0">
+      <sharedItems count="5">
+        <s v="UbuntuVM"/>
+        <s v="Cygwin"/>
+        <s v="Win7"/>
+        <s v="Win10RCVM"/>
+        <s v="Win10VMDay2"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Project" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Scimark2 Composite" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="346.92" maxValue="1916.47"/>
+    </cacheField>
+    <cacheField name="Language" numFmtId="0">
+      <sharedItems count="3">
+        <s v="C++"/>
+        <s v="GO"/>
+        <s v="C#"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Physical" numFmtId="0">
+      <sharedItems count="2">
+        <s v="VM"/>
+        <s v="Physical"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Runtime" numFmtId="0">
+      <sharedItems count="7">
+        <s v="GCC"/>
+        <s v="WPF"/>
+        <s v=".Net 4.6.1"/>
+        <s v="Unmanaged"/>
+        <s v="C++/CLI"/>
+        <s v=".Net Core"/>
+        <s v=".Net Native"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Compiler" numFmtId="0">
+      <sharedItems count="3">
+        <s v="GCC"/>
+        <s v="VS2013"/>
+        <s v="VS2015"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Host Compiler" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Local"/>
+        <s v="Host"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="96">
+  <r>
+    <x v="0"/>
+    <s v="GCC"/>
+    <n v="1785.61"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="GCC"/>
+    <n v="1785.76"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="GCC"/>
+    <n v="1789.76"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="GCC"/>
+    <n v="1789.51"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="GCC"/>
+    <n v="1788.83"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="GCC"/>
+    <n v="1880.53"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="GCC"/>
+    <n v="1878.98"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="GCC"/>
+    <n v="1873.14"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="GCC"/>
+    <n v="1874.62"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="GCC"/>
+    <n v="1878.85"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="GCC GO"/>
+    <n v="778.26"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wpf2013"/>
+    <n v="998.48"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wpf2013"/>
+    <n v="998.76"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wpf2013"/>
+    <n v="996.22"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wpf2013"/>
+    <n v="998.12"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="Wpf2013"/>
+    <n v="997.85"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2013"/>
+    <n v="991.48"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2013"/>
+    <n v="989.57"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2013"/>
+    <n v="990.35"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2013"/>
+    <n v="990.46"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2013"/>
+    <n v="993.95"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2013"/>
+    <n v="1780.98"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2013"/>
+    <n v="1790.58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2013"/>
+    <n v="1784.17"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2013"/>
+    <n v="1787.38"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2013"/>
+    <n v="1784.99"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2013"/>
+    <n v="1575.36"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2013"/>
+    <n v="1578.92"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2013"/>
+    <n v="1576.07"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2013"/>
+    <n v="1583.08"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2013"/>
+    <n v="1561.98"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2015"/>
+    <n v="988.45"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2015"/>
+    <n v="991.75"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2015"/>
+    <n v="987.76"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2015"/>
+    <n v="986.43"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharp2015"/>
+    <n v="986.95"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2015"/>
+    <n v="1905.8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2015"/>
+    <n v="1914.52"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2015"/>
+    <n v="1916.47"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2015"/>
+    <n v="1914.11"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPP2015"/>
+    <n v="1912.69"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2015"/>
+    <n v="1566.79"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2015"/>
+    <n v="1580.19"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2015"/>
+    <n v="1574.58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2015"/>
+    <n v="1574.39"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CPPCLI2015"/>
+    <n v="1572.58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="369.8"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="369.39"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="370.41"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="371.53"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="371.41"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Wpf2013"/>
+    <n v="951.27"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Wpf2013"/>
+    <n v="951.27"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Wpf2013"/>
+    <n v="931.15"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Wpf2013"/>
+    <n v="939.12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="Wpf2013"/>
+    <n v="921.32"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2013"/>
+    <n v="947.54"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2013"/>
+    <n v="950.88"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2013"/>
+    <n v="956.73"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2013"/>
+    <n v="957.2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2013"/>
+    <n v="954.81"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2013"/>
+    <n v="1722.38"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2013"/>
+    <n v="1716.03"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2013"/>
+    <n v="1719.28"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2013"/>
+    <n v="1725.15"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2013"/>
+    <n v="1720.7"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2013"/>
+    <n v="1507.91"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2013"/>
+    <n v="1510.36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2013"/>
+    <n v="1507.55"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2013"/>
+    <n v="1512.83"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2013"/>
+    <n v="1508.42"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2015"/>
+    <n v="957.57"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2015"/>
+    <n v="966.17"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2015"/>
+    <n v="961.33"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2015"/>
+    <n v="959.11"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharp2015"/>
+    <n v="961.73"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2015"/>
+    <n v="1825.67"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2015"/>
+    <n v="1824.14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2015"/>
+    <n v="1824.32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2015"/>
+    <n v="1831.05"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPP2015"/>
+    <n v="1836.94"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2015"/>
+    <n v="1516.9"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2015"/>
+    <n v="1518.43"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2015"/>
+    <n v="1502.71"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2015"/>
+    <n v="1518.8"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CPPCLI2015"/>
+    <n v="1522.29"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="346.92"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="350.93"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="354.93"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="357.36"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="CSharpCoreCLR2015"/>
+    <n v="359.27"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="UWP2015"/>
+    <n v="1335.34"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="UWP2015"/>
+    <n v="1308.6400000000001"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="UWP2015"/>
+    <n v="1301.55"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="UWP2015"/>
+    <n v="1306.3599999999999"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="UWP2015"/>
+    <n v="1300.07"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="46" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J1:M61" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="5">
+    <field x="3"/>
+    <field x="6"/>
+    <field x="5"/>
+    <field x="7"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="60">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="4">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Average of Scimark2 Composite" fld="2" subtotal="average" baseField="3" baseItem="0" numFmtId="1"/>
+    <dataField name="StdDev of Scimark2 Composite" fld="2" subtotal="stdDev" baseField="3" baseItem="0" numFmtId="164"/>
+    <dataField name="Count of Scimark2 Composite" fld="2" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,8 +1897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="A9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,4 +2293,4069 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y123"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:R1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="8"/>
+    <col min="25" max="25" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>1785.61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="8">
+        <v>1708.6616000000001</v>
+      </c>
+      <c r="L2" s="9">
+        <v>146.33973491063696</v>
+      </c>
+      <c r="M2" s="7">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="8">
+        <v>1787.8940000000002</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>2.0457345866185404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>1785.76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="8">
+        <v>1832.559</v>
+      </c>
+      <c r="L3" s="9">
+        <v>47.148087377256935</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1877.2240000000002</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>3.1668959565353396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>1789.76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="8">
+        <v>1832.559</v>
+      </c>
+      <c r="L4" s="9">
+        <v>47.148087377256935</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="W4" t="s">
+        <v>1</v>
+      </c>
+      <c r="X4" s="8">
+        <v>1785.6200000000001</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>3.5961159603028467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>1789.51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="W5" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1720.7080000000001</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>3.4077074404334216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1788.83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1787.8940000000002</v>
+      </c>
+      <c r="L6" s="9">
+        <v>2.0457345866185404</v>
+      </c>
+      <c r="M6" s="7">
+        <v>5</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1575.0819999999999</v>
+      </c>
+      <c r="Y6" s="9">
+        <v>7.9280211906810516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>1880.53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1877.2240000000002</v>
+      </c>
+      <c r="L7" s="9">
+        <v>3.1668959565353396</v>
+      </c>
+      <c r="M7" s="7">
+        <v>5</v>
+      </c>
+      <c r="W7" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="8">
+        <v>1509.414</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>2.1959348806872097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>1878.98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1647.7059999999997</v>
+      </c>
+      <c r="L8" s="9">
+        <v>113.34885853208664</v>
+      </c>
+      <c r="M8" s="7">
+        <v>20</v>
+      </c>
+      <c r="W8" t="s">
+        <v>1</v>
+      </c>
+      <c r="X8" s="8">
+        <v>1912.7180000000001</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>4.0963971973817808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>1873.14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1753.164</v>
+      </c>
+      <c r="L9" s="9">
+        <v>34.370687511327311</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="W9" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="8">
+        <v>1828.4240000000002</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>5.5271629249157499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>1874.62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="7"/>
+      <c r="W10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" s="8">
+        <v>1573.7059999999999</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>4.8055415928589236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>1878.85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1785.6200000000001</v>
+      </c>
+      <c r="L11" s="9">
+        <v>3.5961159603028467</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="W11" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="8">
+        <v>1515.826</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>7.5926233937933043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>778.26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="7"/>
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="8">
+        <v>778.26</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>998.48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1720.7080000000001</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3.4077074404334216</v>
+      </c>
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="8">
+        <v>997.88600000000008</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>0.99351899836294422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>998.76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1542.248</v>
+      </c>
+      <c r="L14" s="9">
+        <v>35.041908496983936</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="W14" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="8">
+        <v>938.82600000000002</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>12.992052570700485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>996.22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="7"/>
+      <c r="W15" t="s">
+        <v>1</v>
+      </c>
+      <c r="X15" s="8">
+        <v>991.16200000000003</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>1.7000499992044453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>998.12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1575.0819999999999</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7.9280211906810516</v>
+      </c>
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="W16" t="s">
+        <v>5</v>
+      </c>
+      <c r="X16" s="8">
+        <v>953.43200000000002</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>4.1292214762470767</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>997.85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="7"/>
+      <c r="W17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="8">
+        <v>988.26800000000003</v>
+      </c>
+      <c r="Y17" s="9">
+        <v>2.0934946859523111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>991.48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1509.414</v>
+      </c>
+      <c r="L18" s="9">
+        <v>2.1959348806872097</v>
+      </c>
+      <c r="M18" s="7">
+        <v>5</v>
+      </c>
+      <c r="W18" t="s">
+        <v>5</v>
+      </c>
+      <c r="X18" s="8">
+        <v>961.18200000000002</v>
+      </c>
+      <c r="Y18" s="9">
+        <v>3.2612144977360136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>989.57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1707.6684999999998</v>
+      </c>
+      <c r="L19" s="9">
+        <v>171.27935120808669</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="W19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" s="8">
+        <v>370.50800000000004</v>
+      </c>
+      <c r="Y19" s="9">
+        <v>0.95116770338476775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>990.35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1870.5709999999999</v>
+      </c>
+      <c r="L20" s="9">
+        <v>44.662955181610251</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10</v>
+      </c>
+      <c r="W20" t="s">
+        <v>5</v>
+      </c>
+      <c r="X20" s="8">
+        <v>353.88199999999995</v>
+      </c>
+      <c r="Y20" s="9">
+        <v>4.9852051111295461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>990.46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>42</v>
+      </c>
+      <c r="G21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="7"/>
+      <c r="W21" t="s">
+        <v>46</v>
+      </c>
+      <c r="X21" s="8">
+        <v>1310.3919999999998</v>
+      </c>
+      <c r="Y21" s="9">
+        <v>14.374055447252196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>993.95</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1912.7180000000001</v>
+      </c>
+      <c r="L22" s="9">
+        <v>4.0963971973817808</v>
+      </c>
+      <c r="M22" s="7">
+        <v>5</v>
+      </c>
+      <c r="W22" t="s">
+        <v>5</v>
+      </c>
+      <c r="X22" s="8">
+        <v>1310.3919999999998</v>
+      </c>
+      <c r="Y22" s="9">
+        <v>14.374055447252196</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>1780.98</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>1790.58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1828.4240000000002</v>
+      </c>
+      <c r="L24" s="9">
+        <v>5.5271629249157499</v>
+      </c>
+      <c r="M24" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>1784.17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1544.7660000000001</v>
+      </c>
+      <c r="L25" s="9">
+        <v>31.088048150017759</v>
+      </c>
+      <c r="M25" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>1787.38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27">
+        <v>1784.99</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1573.7059999999999</v>
+      </c>
+      <c r="L27" s="9">
+        <v>4.8055415928589236</v>
+      </c>
+      <c r="M27" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>1575.36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28" s="8"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>1578.92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1515.826</v>
+      </c>
+      <c r="L29" s="9">
+        <v>7.5926233937933043</v>
+      </c>
+      <c r="M29" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>1576.07</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="8">
+        <v>778.26</v>
+      </c>
+      <c r="L30" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1583.08</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="8">
+        <v>778.26</v>
+      </c>
+      <c r="L31" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <v>1561.98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="8">
+        <v>778.26</v>
+      </c>
+      <c r="L32" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>988.45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>991.75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
+        <v>59</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="8">
+        <v>778.26</v>
+      </c>
+      <c r="L34" s="9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>987.76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s">
+        <v>59</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K35" s="8">
+        <v>873.94866666666667</v>
+      </c>
+      <c r="L35" s="9">
+        <v>296.77412877779307</v>
+      </c>
+      <c r="M35" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>986.43</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>59</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K36" s="8">
+        <v>970.32650000000035</v>
+      </c>
+      <c r="L36" s="9">
+        <v>26.273494002605212</v>
+      </c>
+      <c r="M36" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>986.95</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" t="s">
+        <v>49</v>
+      </c>
+      <c r="H37" t="s">
+        <v>59</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37" s="8">
+        <v>968.35600000000011</v>
+      </c>
+      <c r="L37" s="9">
+        <v>32.316715729718098</v>
+      </c>
+      <c r="M37" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>1905.8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" t="s">
+        <v>59</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>1914.52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" t="s">
+        <v>49</v>
+      </c>
+      <c r="H39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" s="8">
+        <v>997.88600000000008</v>
+      </c>
+      <c r="L39" s="9">
+        <v>0.99351899836294422</v>
+      </c>
+      <c r="M39" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>1916.47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>1914.11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="8">
+        <v>938.82600000000002</v>
+      </c>
+      <c r="L41" s="9">
+        <v>12.992052570700485</v>
+      </c>
+      <c r="M41" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>1912.69</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" t="s">
+        <v>59</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K42" s="8">
+        <v>972.29700000000014</v>
+      </c>
+      <c r="L42" s="9">
+        <v>20.107060147555437</v>
+      </c>
+      <c r="M42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>1566.79</v>
+      </c>
+      <c r="D43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
+      </c>
+      <c r="G43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s">
+        <v>59</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44">
+        <v>1580.19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>44</v>
+      </c>
+      <c r="G44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" s="8">
+        <v>991.16200000000003</v>
+      </c>
+      <c r="L44" s="9">
+        <v>1.7000499992044453</v>
+      </c>
+      <c r="M44" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <v>1574.58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>44</v>
+      </c>
+      <c r="G45" t="s">
+        <v>49</v>
+      </c>
+      <c r="H45" t="s">
+        <v>59</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46">
+        <v>1574.39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" t="s">
+        <v>59</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="8">
+        <v>953.43200000000002</v>
+      </c>
+      <c r="L46" s="9">
+        <v>4.1292214762470767</v>
+      </c>
+      <c r="M46" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>1572.58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" t="s">
+        <v>49</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K47" s="8">
+        <v>796.84640000000002</v>
+      </c>
+      <c r="L47" s="9">
+        <v>383.39418998684209</v>
+      </c>
+      <c r="M47" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>369.8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" t="s">
+        <v>59</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K48" s="8">
+        <v>974.72500000000002</v>
+      </c>
+      <c r="L48" s="9">
+        <v>14.507474893238268</v>
+      </c>
+      <c r="M48" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>369.39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s">
+        <v>59</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="7"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>370.41</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H50" t="s">
+        <v>59</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" s="8">
+        <v>988.26800000000003</v>
+      </c>
+      <c r="L50" s="9">
+        <v>2.0934946859523111</v>
+      </c>
+      <c r="M50" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>371.53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" t="s">
+        <v>59</v>
+      </c>
+      <c r="J51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="7"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>19</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52">
+        <v>371.41</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" t="s">
+        <v>59</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="8">
+        <v>961.18200000000002</v>
+      </c>
+      <c r="L52" s="9">
+        <v>3.2612144977360136</v>
+      </c>
+      <c r="M52" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53">
+        <v>951.27</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" t="s">
+        <v>58</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" s="8">
+        <v>362.19499999999999</v>
+      </c>
+      <c r="L53" s="9">
+        <v>9.3931869517818178</v>
+      </c>
+      <c r="M53" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>951.27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" t="s">
+        <v>58</v>
+      </c>
+      <c r="J54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55">
+        <v>931.15</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="8">
+        <v>370.50800000000004</v>
+      </c>
+      <c r="L55" s="9">
+        <v>0.95116770338476775</v>
+      </c>
+      <c r="M55" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>939.12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" t="s">
+        <v>58</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="7"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57">
+        <v>921.32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="s">
+        <v>48</v>
+      </c>
+      <c r="H57" t="s">
+        <v>58</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="8">
+        <v>353.88199999999995</v>
+      </c>
+      <c r="L57" s="9">
+        <v>4.9852051111295461</v>
+      </c>
+      <c r="M57" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58">
+        <v>947.54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="8">
+        <v>1310.3919999999998</v>
+      </c>
+      <c r="L58" s="9">
+        <v>14.374055447252196</v>
+      </c>
+      <c r="M58" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59">
+        <v>950.88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" t="s">
+        <v>42</v>
+      </c>
+      <c r="G59" t="s">
+        <v>48</v>
+      </c>
+      <c r="H59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="7"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>956.73</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" t="s">
+        <v>58</v>
+      </c>
+      <c r="J60" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="8">
+        <v>1310.3919999999998</v>
+      </c>
+      <c r="L60" s="9">
+        <v>14.374055447252196</v>
+      </c>
+      <c r="M60" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61">
+        <v>957.2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" t="s">
+        <v>42</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s">
+        <v>58</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K61" s="8">
+        <v>1307.6982291666666</v>
+      </c>
+      <c r="L61" s="9">
+        <v>478.04175403188879</v>
+      </c>
+      <c r="M61" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>954.81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G62" t="s">
+        <v>48</v>
+      </c>
+      <c r="H62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63">
+        <v>1722.38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>38</v>
+      </c>
+      <c r="E63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F63" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>1716.03</v>
+      </c>
+      <c r="D64" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>1719.28</v>
+      </c>
+      <c r="D65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66">
+        <v>1725.15</v>
+      </c>
+      <c r="D66" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67">
+        <v>1720.7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>38</v>
+      </c>
+      <c r="E67" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68">
+        <v>1507.91</v>
+      </c>
+      <c r="D68" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" t="s">
+        <v>5</v>
+      </c>
+      <c r="F68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="H68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69">
+        <v>1510.36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>38</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="H69" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70">
+        <v>1507.55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E70" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s">
+        <v>48</v>
+      </c>
+      <c r="H70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>1512.83</v>
+      </c>
+      <c r="D71" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72">
+        <v>1508.42</v>
+      </c>
+      <c r="D72" t="s">
+        <v>38</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s">
+        <v>48</v>
+      </c>
+      <c r="H72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>957.57</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>42</v>
+      </c>
+      <c r="G73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74">
+        <v>966.17</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>42</v>
+      </c>
+      <c r="G74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>961.33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" t="s">
+        <v>49</v>
+      </c>
+      <c r="H75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76">
+        <v>959.11</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>42</v>
+      </c>
+      <c r="G76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>961.73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>5</v>
+      </c>
+      <c r="F77" t="s">
+        <v>42</v>
+      </c>
+      <c r="G77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78">
+        <v>1825.67</v>
+      </c>
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+      <c r="E78" t="s">
+        <v>5</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79">
+        <v>1824.14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>38</v>
+      </c>
+      <c r="E79" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80">
+        <v>1824.32</v>
+      </c>
+      <c r="D80" t="s">
+        <v>38</v>
+      </c>
+      <c r="E80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G80" t="s">
+        <v>49</v>
+      </c>
+      <c r="H80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81">
+        <v>1831.05</v>
+      </c>
+      <c r="D81" t="s">
+        <v>38</v>
+      </c>
+      <c r="E81" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" t="s">
+        <v>43</v>
+      </c>
+      <c r="G81" t="s">
+        <v>49</v>
+      </c>
+      <c r="H81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <v>1836.94</v>
+      </c>
+      <c r="D82" t="s">
+        <v>38</v>
+      </c>
+      <c r="E82" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" t="s">
+        <v>49</v>
+      </c>
+      <c r="H82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>1516.9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
+      </c>
+      <c r="G83" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84">
+        <v>1518.43</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>44</v>
+      </c>
+      <c r="G84" t="s">
+        <v>49</v>
+      </c>
+      <c r="H84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>56</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85">
+        <v>1502.71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>44</v>
+      </c>
+      <c r="G85" t="s">
+        <v>49</v>
+      </c>
+      <c r="H85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86">
+        <v>1518.8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>49</v>
+      </c>
+      <c r="H86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87">
+        <v>1522.29</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>44</v>
+      </c>
+      <c r="G87" t="s">
+        <v>49</v>
+      </c>
+      <c r="H87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88">
+        <v>346.92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" t="s">
+        <v>49</v>
+      </c>
+      <c r="H88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89">
+        <v>350.93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>56</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>354.93</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>56</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91">
+        <v>357.36</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>45</v>
+      </c>
+      <c r="G91" t="s">
+        <v>49</v>
+      </c>
+      <c r="H91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>359.27</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>45</v>
+      </c>
+      <c r="G92" t="s">
+        <v>49</v>
+      </c>
+      <c r="H92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93">
+        <v>1335.34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s">
+        <v>49</v>
+      </c>
+      <c r="H93" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" t="s">
+        <v>35</v>
+      </c>
+      <c r="C94">
+        <v>1308.6400000000001</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>60</v>
+      </c>
+      <c r="B95" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95">
+        <v>1301.55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>46</v>
+      </c>
+      <c r="G95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>60</v>
+      </c>
+      <c r="B96" t="s">
+        <v>35</v>
+      </c>
+      <c r="C96">
+        <v>1306.3599999999999</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="G96" t="s">
+        <v>49</v>
+      </c>
+      <c r="H96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97">
+        <v>1300.07</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>46</v>
+      </c>
+      <c r="G97" t="s">
+        <v>49</v>
+      </c>
+      <c r="H97" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>34</v>
+      </c>
+      <c r="B99" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99">
+        <v>1297.67</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+      <c r="G99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100">
+        <v>1300.3499999999999</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>46</v>
+      </c>
+      <c r="G100" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" t="s">
+        <v>35</v>
+      </c>
+      <c r="C101">
+        <v>1280.98</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>34</v>
+      </c>
+      <c r="B102" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102">
+        <v>1276.3699999999999</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" t="s">
+        <v>46</v>
+      </c>
+      <c r="G102" t="s">
+        <v>49</v>
+      </c>
+      <c r="H102" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C103">
+        <v>1289.33</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>46</v>
+      </c>
+      <c r="G103" t="s">
+        <v>49</v>
+      </c>
+      <c r="H103" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>34</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>916.91</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>42</v>
+      </c>
+      <c r="G104" t="s">
+        <v>49</v>
+      </c>
+      <c r="H104" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>34</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>927.1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>42</v>
+      </c>
+      <c r="G105" t="s">
+        <v>49</v>
+      </c>
+      <c r="H105" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>34</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>930.71</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" t="s">
+        <v>42</v>
+      </c>
+      <c r="G106" t="s">
+        <v>49</v>
+      </c>
+      <c r="H106" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>34</v>
+      </c>
+      <c r="B107" t="s">
+        <v>30</v>
+      </c>
+      <c r="C107">
+        <v>930.77</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>42</v>
+      </c>
+      <c r="G107" t="s">
+        <v>49</v>
+      </c>
+      <c r="H107" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B108" t="s">
+        <v>30</v>
+      </c>
+      <c r="C108">
+        <v>931.25</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>5</v>
+      </c>
+      <c r="F108" t="s">
+        <v>42</v>
+      </c>
+      <c r="G108" t="s">
+        <v>49</v>
+      </c>
+      <c r="H108" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>1796.96</v>
+      </c>
+      <c r="D109" t="s">
+        <v>38</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" t="s">
+        <v>49</v>
+      </c>
+      <c r="H109" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>34</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>1796.43</v>
+      </c>
+      <c r="D110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" t="s">
+        <v>49</v>
+      </c>
+      <c r="H110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>34</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>1778.5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>43</v>
+      </c>
+      <c r="G111" t="s">
+        <v>49</v>
+      </c>
+      <c r="H111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>34</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112">
+        <v>1773.22</v>
+      </c>
+      <c r="D112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" t="s">
+        <v>49</v>
+      </c>
+      <c r="H112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>34</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113">
+        <v>1750.03</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" t="s">
+        <v>49</v>
+      </c>
+      <c r="H113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114">
+        <v>1382.06</v>
+      </c>
+      <c r="D114" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>44</v>
+      </c>
+      <c r="G114" t="s">
+        <v>49</v>
+      </c>
+      <c r="H114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115">
+        <v>1417.15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" t="s">
+        <v>5</v>
+      </c>
+      <c r="F115" t="s">
+        <v>44</v>
+      </c>
+      <c r="G115" t="s">
+        <v>49</v>
+      </c>
+      <c r="H115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>34</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>1424.24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>38</v>
+      </c>
+      <c r="E116" t="s">
+        <v>5</v>
+      </c>
+      <c r="F116" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" t="s">
+        <v>49</v>
+      </c>
+      <c r="H116" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>1425.93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117" t="s">
+        <v>44</v>
+      </c>
+      <c r="G117" t="s">
+        <v>49</v>
+      </c>
+      <c r="H117" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>34</v>
+      </c>
+      <c r="B118" t="s">
+        <v>32</v>
+      </c>
+      <c r="C118">
+        <v>1401.27</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>44</v>
+      </c>
+      <c r="G118" t="s">
+        <v>49</v>
+      </c>
+      <c r="H118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>334.68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>5</v>
+      </c>
+      <c r="F119" t="s">
+        <v>45</v>
+      </c>
+      <c r="G119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H119" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>34</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>338.15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>5</v>
+      </c>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+      <c r="G120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H120" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>34</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121">
+        <v>333.84</v>
+      </c>
+      <c r="D121" t="s">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>5</v>
+      </c>
+      <c r="F121" t="s">
+        <v>45</v>
+      </c>
+      <c r="G121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H121" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>34</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122">
+        <v>339.97</v>
+      </c>
+      <c r="D122" t="s">
+        <v>2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>5</v>
+      </c>
+      <c r="F122" t="s">
+        <v>45</v>
+      </c>
+      <c r="G122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H122" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>34</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123">
+        <v>343.12</v>
+      </c>
+      <c r="D123" t="s">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>5</v>
+      </c>
+      <c r="F123" t="s">
+        <v>45</v>
+      </c>
+      <c r="G123" t="s">
+        <v>49</v>
+      </c>
+      <c r="H123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
 </file>
--- a/SciMark2 Results.xlsx
+++ b/SciMark2 Results.xlsx
@@ -9,22 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="9480" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="9480"/>
   </bookViews>
   <sheets>
-    <sheet name="Original Run" sheetId="1" r:id="rId1"/>
-    <sheet name="Sampling" sheetId="2" r:id="rId2"/>
-    <sheet name="Run50Details" sheetId="3" r:id="rId3"/>
-    <sheet name="Run 50" sheetId="4" r:id="rId4"/>
-    <sheet name="Native" sheetId="11" r:id="rId5"/>
-    <sheet name="C++ Panel" sheetId="10" r:id="rId6"/>
-    <sheet name="Virtual OS" sheetId="9" r:id="rId7"/>
-    <sheet name="Virtualization" sheetId="7" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId9"/>
+    <sheet name="Run 50" sheetId="4" r:id="rId1"/>
+    <sheet name="Run50Details" sheetId="3" r:id="rId2"/>
+    <sheet name="GCC vs VS2015" sheetId="6" r:id="rId3"/>
+    <sheet name="Virtual OS" sheetId="9" r:id="rId4"/>
+    <sheet name="VS20132015" sheetId="14" r:id="rId5"/>
+    <sheet name="Core" sheetId="13" r:id="rId6"/>
+    <sheet name="Perf Chart" sheetId="12" r:id="rId7"/>
+    <sheet name="Native" sheetId="11" r:id="rId8"/>
+    <sheet name="C++ Panel" sheetId="10" r:id="rId9"/>
+    <sheet name="Virtualization" sheetId="7" r:id="rId10"/>
+    <sheet name="First Run Summary" sheetId="1" r:id="rId11"/>
+    <sheet name="First Run Details" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="8" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4229" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4379" uniqueCount="134">
   <si>
     <t>Machine</t>
   </si>
@@ -414,15 +417,40 @@
   <si>
     <t>WPF .Net</t>
   </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>.NET Native 2015</t>
+  </si>
+  <si>
+    <t>cygwin Combined</t>
+  </si>
+  <si>
+    <t>VS 2015 Combined</t>
+  </si>
+  <si>
+    <t>Ratio Uncertainty</t>
+  </si>
+  <si>
+    <t>Ratio StdDev</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -461,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -490,14 +518,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4703,11 +4739,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="316176448"/>
-        <c:axId val="316177232"/>
+        <c:axId val="198497704"/>
+        <c:axId val="198498096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="316176448"/>
+        <c:axId val="198497704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4805,7 +4841,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316177232"/>
+        <c:crossAx val="198498096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4813,7 +4849,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="316177232"/>
+        <c:axId val="198498096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4925,7 +4961,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316176448"/>
+        <c:crossAx val="198497704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5006,7 +5042,556 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Several C Compilers</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>on Windows 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Perf Chart'!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Perf Chart'!$C$4:$C$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.8655987032657286</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.750407713493404</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0707937281541655</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.585280160193218</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.846669380268561</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.438543693876686</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.362515388732533</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.99067254</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24.721538189380109</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Perf Chart'!$C$4:$C$12</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>8.8655987032657286</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>14.750407713493404</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.0707937281541655</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28.585280160193218</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.846669380268561</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6.438543693876686</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>11.362515388732533</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>12.99067254</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>24.721538189380109</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Perf Chart'!$A$4:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>C# Core 2015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>C# 2015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C# 2013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>.NET Native 2015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VS C++/CLI 2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>VS C++/CLI 2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>VS C++ 2013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GCC C++</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>VS C++ 2015</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Perf Chart'!$D$15:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>361.45620000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>954.93219999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>971.02320000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1352.5909999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1533.6760000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1545.5160000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1751.9646</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1792.8894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1812.7983999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="198499272"/>
+        <c:axId val="198499664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198499272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198499664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="198499664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SciMark2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Composite Index (M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>flops)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198499272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5562,6 +6147,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5597,10 +6698,45 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Steven Davis" refreshedDate="42625.67879085648" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="96">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H97" sheet="Sampling"/>
+    <worksheetSource ref="A1:H97" sheet="First Run Details"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Context" numFmtId="0">
@@ -6630,7 +7766,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J1:M61" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -7201,6 +8337,2744 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="9"/>
+    <col min="6" max="6" width="9.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="8" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8" customWidth="1"/>
+    <col min="10" max="11" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="12" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="13" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" s="25"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>47</v>
+      </c>
+      <c r="V3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="9">
+        <v>356.92099999999994</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3.7492944914574844</v>
+      </c>
+      <c r="N4" s="12">
+        <v>-0.12095798319327702</v>
+      </c>
+      <c r="O4" s="11">
+        <v>3.2261531727868178E-2</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.62334668548942795</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>550</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="9">
+        <v>358.32139999999998</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.7156911024959227</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5:F26" si="0">D5-D4</f>
+        <v>1.4004000000000474</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" ref="G5:G27" si="1">F5/D4</f>
+        <v>3.9235573138034678E-3</v>
+      </c>
+      <c r="H5" s="9">
+        <f t="shared" ref="H5:H27" si="2">SQRT((E4*E4+E5*E5)/50)</f>
+        <v>0.58310899740712474</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" ref="I5:I27" si="3">ABS(F5)/H5</f>
+        <v>2.4016093152860285</v>
+      </c>
+      <c r="J5" s="11">
+        <f t="shared" ref="J5:J27" si="4">1-TDIST(I5,98,2)</f>
+        <v>0.98179167205799567</v>
+      </c>
+      <c r="K5" s="11">
+        <f t="shared" ref="K5:K27" si="5">SQRT(H5*H5/D4/D4+F5*F5*E4*E4/D4/D4/D4/D4)</f>
+        <v>1.6342398619276738E-3</v>
+      </c>
+      <c r="L5" s="9">
+        <f>ABS(G5)/K5</f>
+        <v>2.4008454359786704</v>
+      </c>
+      <c r="M5" s="11">
+        <f>1-TDIST(L5,98,1)</f>
+        <v>0.9908778963913677</v>
+      </c>
+      <c r="N5" s="12">
+        <v>5.2331812725090097E-2</v>
+      </c>
+      <c r="O5" s="11">
+        <v>3.0501885012377664E-2</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.60335193759481431</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S5" t="s">
+        <v>123</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="9">
+        <v>361.45620000000002</v>
+      </c>
+      <c r="E6" s="9">
+        <v>8.8655987032657286</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>3.1348000000000411</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>8.7485704175079733E-3</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2770468771860384</v>
+      </c>
+      <c r="I6" s="8">
+        <f t="shared" si="3"/>
+        <v>2.4547258648073638</v>
+      </c>
+      <c r="J6" s="11">
+        <f t="shared" si="4"/>
+        <v>0.98413774441989799</v>
+      </c>
+      <c r="K6" s="11">
+        <f t="shared" si="5"/>
+        <v>3.5642166046393879E-3</v>
+      </c>
+      <c r="L6" s="9">
+        <f t="shared" ref="L6:L27" si="6">ABS(G6)/K6</f>
+        <v>2.4545563269416157</v>
+      </c>
+      <c r="M6" s="11">
+        <f t="shared" ref="M6:M27" si="7">1-TDIST(L6,98,1)</f>
+        <v>0.99206535346362446</v>
+      </c>
+      <c r="N6" s="12">
+        <v>-0.30147178871548591</v>
+      </c>
+      <c r="O6" s="11">
+        <v>3.4004673435583756E-2</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.7036898086186002</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1000</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="9">
+        <v>373.12179999999984</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.4300131153958293</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>11.665599999999813</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>3.2273896532968069E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <f t="shared" si="2"/>
+        <v>1.269990376952133</v>
+      </c>
+      <c r="I7" s="8">
+        <f t="shared" si="3"/>
+        <v>9.1855814120389194</v>
+      </c>
+      <c r="J7" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99999999999999289</v>
+      </c>
+      <c r="K7" s="11">
+        <f t="shared" si="5"/>
+        <v>3.6016079170389606E-3</v>
+      </c>
+      <c r="L7" s="9">
+        <f t="shared" si="6"/>
+        <v>8.9609688995524674</v>
+      </c>
+      <c r="M7" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99999999999998912</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1.9318607442977569E-2</v>
+      </c>
+      <c r="O7" s="11">
+        <v>1.3509391791578189E-2</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.33917570343090958</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="9">
+        <v>649.7675999999999</v>
+      </c>
+      <c r="E8" s="9">
+        <v>8.3671484816683854</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>276.64580000000007</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>0.74143563844299687</v>
+      </c>
+      <c r="H8" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2004508421796343</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="3"/>
+        <v>230.45158558737808</v>
+      </c>
+      <c r="J8" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <f t="shared" si="5"/>
+        <v>4.292529705204778E-3</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" si="6"/>
+        <v>172.72696739733479</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="12">
+        <v>-0.17021848739495818</v>
+      </c>
+      <c r="O8" s="11">
+        <v>2.0343667590923056E-2</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.53552997974396255</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" t="s">
+        <v>21</v>
+      </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>250</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="9">
+        <v>954.93219999999997</v>
+      </c>
+      <c r="E9" s="9">
+        <v>14.750407713493404</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="0"/>
+        <v>305.16460000000006</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>0.46965191862444372</v>
+      </c>
+      <c r="H9" s="9">
+        <f t="shared" si="2"/>
+        <v>2.3982647953408787</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="3"/>
+        <v>127.24391426369803</v>
+      </c>
+      <c r="J9" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="11">
+        <f t="shared" si="5"/>
+        <v>7.0851065659358319E-3</v>
+      </c>
+      <c r="L9" s="9">
+        <f t="shared" si="6"/>
+        <v>66.28720602206073</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>-0.55968931572629033</v>
+      </c>
+      <c r="O9" s="11">
+        <v>3.7943989522018211E-2</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.66031019210257869</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U9" t="s">
+        <v>49</v>
+      </c>
+      <c r="V9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="9">
+        <v>963.06079999999986</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5.6161726527330202</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="0"/>
+        <v>8.1285999999998921</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>8.5122273602250432E-3</v>
+      </c>
+      <c r="H10" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2321107632892772</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="3"/>
+        <v>3.6416651600306098</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99956495429028858</v>
+      </c>
+      <c r="K10" s="11">
+        <f t="shared" si="5"/>
+        <v>2.3411498628460861E-3</v>
+      </c>
+      <c r="L10" s="9">
+        <f t="shared" si="6"/>
+        <v>3.6359173307585313</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99977816265773789</v>
+      </c>
+      <c r="N10" s="12">
+        <v>-8.7739735894358239E-2</v>
+      </c>
+      <c r="O10" s="11">
+        <v>1.5622692057314353E-2</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.4087305238282542</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>125</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="9">
+        <v>971.02320000000009</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6.0707937281541655</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="0"/>
+        <v>7.9624000000002297</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>8.2678061447420872E-3</v>
+      </c>
+      <c r="H11" s="9">
+        <f t="shared" si="2"/>
+        <v>1.1695805380998967</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="3"/>
+        <v>6.8079108198362839</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99999999920170912</v>
+      </c>
+      <c r="K11" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2153977195797389E-3</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="6"/>
+        <v>6.8025519643075647</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99999999959063979</v>
+      </c>
+      <c r="N11" s="12">
+        <v>-0.2850352941176475</v>
+      </c>
+      <c r="O11" s="11">
+        <v>4.6951899023641004E-2</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0.62962039214265531</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>76</v>
+      </c>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>700</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="9">
+        <v>990.45060000000024</v>
+      </c>
+      <c r="E12" s="9">
+        <v>2.7575420954471848</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="0"/>
+        <v>19.427400000000148</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>2.000714298072399E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <f t="shared" si="2"/>
+        <v>0.94295890576375807</v>
+      </c>
+      <c r="I12" s="8">
+        <f t="shared" si="3"/>
+        <v>20.602594536465777</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <f t="shared" si="5"/>
+        <v>9.7912088660144763E-4</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" si="6"/>
+        <v>20.43378223721615</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>-1.844657863145311E-2</v>
+      </c>
+      <c r="O12" s="11">
+        <v>6.6895002842963557E-3</v>
+      </c>
+      <c r="P12" s="13">
+        <v>-7.0685629600595101E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
+      <c r="R12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>76</v>
+      </c>
+      <c r="U12" t="s">
+        <v>48</v>
+      </c>
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>850</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="9">
+        <v>992.9047999999998</v>
+      </c>
+      <c r="E13" s="9">
+        <v>3.1992857876439285</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="0"/>
+        <v>2.4541999999995596</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>2.4778620963019854E-3</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.59731847383424674</v>
+      </c>
+      <c r="I13" s="8">
+        <f t="shared" si="3"/>
+        <v>4.1086959595369708</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99991737201653774</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" si="5"/>
+        <v>6.0311695836416581E-4</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="6"/>
+        <v>4.1084271664698191</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99995864501053611</v>
+      </c>
+      <c r="N13" s="12">
+        <v>3.1756062424970283E-2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>9.9259849018854332E-3</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.33588676847119475</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" t="s">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="9">
+        <v>999.27219999999988</v>
+      </c>
+      <c r="E14" s="9">
+        <v>2.951710877108523</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="0"/>
+        <v>6.3674000000000888</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>6.4129008138545506E-3</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="2"/>
+        <v>0.61559770391159185</v>
+      </c>
+      <c r="I14" s="8">
+        <f t="shared" si="3"/>
+        <v>10.343443387687705</v>
+      </c>
+      <c r="J14" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="11">
+        <f t="shared" si="5"/>
+        <v>6.2034094345132416E-4</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="6"/>
+        <v>10.337703615330925</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="12">
+        <v>-4.9785834333733445E-2</v>
+      </c>
+      <c r="O14" s="11">
+        <v>1.6866771986321142E-2</v>
+      </c>
+      <c r="P14" s="13">
+        <v>-8.2636407097676556E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s">
+        <v>19</v>
+      </c>
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>125</v>
+      </c>
+      <c r="U14" t="s">
+        <v>48</v>
+      </c>
+      <c r="V14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>410</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1352.5909999999994</v>
+      </c>
+      <c r="E15" s="9">
+        <v>28.585280160193218</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="0"/>
+        <v>353.31879999999956</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>0.35357613270938548</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="2"/>
+        <v>4.0640640716868051</v>
+      </c>
+      <c r="I15" s="8">
+        <f t="shared" si="3"/>
+        <v>86.937310477330456</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="5"/>
+        <v>4.1989863755218073E-3</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="6"/>
+        <v>84.205115494199873</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="12">
+        <v>1.2886746698679483</v>
+      </c>
+      <c r="O15" s="11">
+        <v>4.5081757556552061E-2</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.87977329266634863</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>2</v>
+      </c>
+      <c r="R15" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>46</v>
+      </c>
+      <c r="U15" t="s">
+        <v>49</v>
+      </c>
+      <c r="V15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>200</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1533.6760000000002</v>
+      </c>
+      <c r="E16" s="9">
+        <v>4.846669380268561</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="0"/>
+        <v>181.08500000000072</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>0.13388008644150434</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="2"/>
+        <v>4.1002644937085924</v>
+      </c>
+      <c r="I16" s="8">
+        <f t="shared" si="3"/>
+        <v>44.164224107458395</v>
+      </c>
+      <c r="J16" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" si="5"/>
+        <v>4.1466723886741282E-3</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="6"/>
+        <v>32.286149927631882</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="12">
+        <v>-1.7863145258102814E-2</v>
+      </c>
+      <c r="O16" s="11">
+        <v>3.685653766858137E-3</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.23450823954512137</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s">
+        <v>76</v>
+      </c>
+      <c r="U16" t="s">
+        <v>48</v>
+      </c>
+      <c r="V16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>350</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1545.5160000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <v>6.438543693876686</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="0"/>
+        <v>11.839999999999918</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>7.7200138751600186E-3</v>
+      </c>
+      <c r="H17" s="9">
+        <f t="shared" si="2"/>
+        <v>1.139693370864217</v>
+      </c>
+      <c r="I17" s="8">
+        <f t="shared" si="3"/>
+        <v>10.388759207243416</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K17" s="11">
+        <f t="shared" si="5"/>
+        <v>7.4351257929099776E-4</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="6"/>
+        <v>10.383165114061292</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="12">
+        <v>-4.85810324129652E-2</v>
+      </c>
+      <c r="O17" s="11">
+        <v>7.5453448361572379E-3</v>
+      </c>
+      <c r="P17" s="13">
+        <v>-0.14518215068370854</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U17" t="s">
+        <v>49</v>
+      </c>
+      <c r="V17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>800</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1564.5955999999999</v>
+      </c>
+      <c r="E18" s="9">
+        <v>7.2093055398801642</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="0"/>
+        <v>19.0795999999998</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>1.2345132628843571E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3669596282649028</v>
+      </c>
+      <c r="I18" s="8">
+        <f t="shared" si="3"/>
+        <v>13.957690926262211</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" si="5"/>
+        <v>8.8596208522584235E-4</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="6"/>
+        <v>13.93415455887895</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="12">
+        <v>0.32542424969987938</v>
+      </c>
+      <c r="O18" s="11">
+        <v>4.5139472574675855E-2</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.55648356342922822</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>38</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s">
+        <v>48</v>
+      </c>
+      <c r="V18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>950</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1582.4970000000003</v>
+      </c>
+      <c r="E19" s="9">
+        <v>5.2254054622486192</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="0"/>
+        <v>17.901400000000422</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
+        <v>1.1441550775165432E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="2"/>
+        <v>1.2591977494599054</v>
+      </c>
+      <c r="I19" s="8">
+        <f t="shared" si="3"/>
+        <v>14.216512067051172</v>
+      </c>
+      <c r="J19" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="11">
+        <f t="shared" si="5"/>
+        <v>8.0653207125611971E-4</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="6"/>
+        <v>14.186107636545664</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="12">
+        <v>-9.5764705882350355E-3</v>
+      </c>
+      <c r="O19" s="11">
+        <v>1.8326751210831489E-3</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.40876152167612223</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" t="s">
+        <v>19</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s">
+        <v>49</v>
+      </c>
+      <c r="V19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1751.9646</v>
+      </c>
+      <c r="E20" s="9">
+        <v>11.362515388732533</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="0"/>
+        <v>169.46759999999972</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
+        <v>0.10708873381750467</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="2"/>
+        <v>1.768680967297841</v>
+      </c>
+      <c r="I20" s="8">
+        <f t="shared" si="3"/>
+        <v>95.815810275218411</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="11">
+        <f t="shared" si="5"/>
+        <v>1.1722559290742074E-3</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="6"/>
+        <v>91.352691132966427</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0.35175174069627968</v>
+      </c>
+      <c r="O20" s="11">
+        <v>3.095720697945888E-2</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0.62097634484205255</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>38</v>
+      </c>
+      <c r="R20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s">
+        <v>77</v>
+      </c>
+      <c r="U20" t="s">
+        <v>48</v>
+      </c>
+      <c r="V20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>750</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1773.2163999999996</v>
+      </c>
+      <c r="E21" s="9">
+        <v>6.6778420564290428</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>21.251799999999548</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>1.2130267928929355E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="2"/>
+        <v>1.8638687211807385</v>
+      </c>
+      <c r="I21" s="8">
+        <f t="shared" si="3"/>
+        <v>11.40198328267282</v>
+      </c>
+      <c r="J21" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="11">
+        <f t="shared" si="5"/>
+        <v>1.06677837523422E-3</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="6"/>
+        <v>11.370935341903659</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="12">
+        <v>-0.16589099639856036</v>
+      </c>
+      <c r="O21" s="11">
+        <v>2.484200659385917E-2</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0.40365507494175368</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>38</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21" t="s">
+        <v>48</v>
+      </c>
+      <c r="V21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>600</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1783.0169999999998</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6.6330041367054227</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="0"/>
+        <v>9.8006000000002587</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>5.5270185861129306E-3</v>
+      </c>
+      <c r="H22" s="9">
+        <f t="shared" si="2"/>
+        <v>1.3310921711749619</v>
+      </c>
+      <c r="I22" s="8">
+        <f t="shared" si="3"/>
+        <v>7.3628259651991028</v>
+      </c>
+      <c r="J22" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99999999994349853</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="5"/>
+        <v>7.509539013728976E-4</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="6"/>
+        <v>7.359997166281989</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99999999997136113</v>
+      </c>
+      <c r="N22" s="12">
+        <v>0.29766098439375815</v>
+      </c>
+      <c r="O22" s="11">
+        <v>4.4875742312080746E-2</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0.46389197118893388</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" t="s">
+        <v>92</v>
+      </c>
+      <c r="S22" t="s">
+        <v>123</v>
+      </c>
+      <c r="T22" t="s">
+        <v>24</v>
+      </c>
+      <c r="U22" t="s">
+        <v>24</v>
+      </c>
+      <c r="V22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>450</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1784.9860000000001</v>
+      </c>
+      <c r="E23" s="9">
+        <v>8.924595228916532</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="0"/>
+        <v>1.9690000000002783</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>1.1043080352011667E-3</v>
+      </c>
+      <c r="H23" s="9">
+        <f t="shared" si="2"/>
+        <v>1.572546621741632</v>
+      </c>
+      <c r="I23" s="8">
+        <f t="shared" si="3"/>
+        <v>1.2521091411710039</v>
+      </c>
+      <c r="J23" s="11">
+        <f t="shared" si="4"/>
+        <v>0.78648983197837408</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="5"/>
+        <v>8.8196785627693303E-4</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="6"/>
+        <v>1.2520955580658033</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="7"/>
+        <v>0.89324245213803954</v>
+      </c>
+      <c r="N23" s="12">
+        <v>-0.11381128451380484</v>
+      </c>
+      <c r="O23" s="11">
+        <v>1.2752543011143579E-2</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0.42831224696178144</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s">
+        <v>24</v>
+      </c>
+      <c r="U23" t="s">
+        <v>24</v>
+      </c>
+      <c r="V23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1150</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1792.8894</v>
+      </c>
+      <c r="E24" s="9">
+        <v>12.99067254</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="0"/>
+        <v>7.9033999999999196</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
+        <v>4.4277097971636295E-3</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="2"/>
+        <v>2.2289278725051189</v>
+      </c>
+      <c r="I24" s="8">
+        <f t="shared" si="3"/>
+        <v>3.5458303059027179</v>
+      </c>
+      <c r="J24" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99939799234976479</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="5"/>
+        <v>1.2489051007393071E-3</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="6"/>
+        <v>3.5452732113453487</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99969843228688238</v>
+      </c>
+      <c r="N24" s="12">
+        <v>0.22224681900000001</v>
+      </c>
+      <c r="O24" s="11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0.24589059299999999</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R24" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>300</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="E25" s="9">
+        <v>24.721538189380109</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="0"/>
+        <v>19.908999999999651</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>1.1104421722834466E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="2"/>
+        <v>3.949460782158722</v>
+      </c>
+      <c r="I25" s="8">
+        <f t="shared" si="3"/>
+        <v>5.0409413077188878</v>
+      </c>
+      <c r="J25" s="11">
+        <f t="shared" si="4"/>
+        <v>0.99999787819938424</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="5"/>
+        <v>2.2043157477316514E-3</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="6"/>
+        <v>5.0375821768099502</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="7"/>
+        <v>0.99999892421841152</v>
+      </c>
+      <c r="N25" s="12">
+        <v>0.84584969987995262</v>
+      </c>
+      <c r="O25" s="11">
+        <v>3.4215091852306874E-2</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0.34832118306774196</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>38</v>
+      </c>
+      <c r="R25" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" t="s">
+        <v>49</v>
+      </c>
+      <c r="V25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1050</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1889.0116000000003</v>
+      </c>
+      <c r="E26" s="9">
+        <v>5.1441991741044797</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="0"/>
+        <v>76.213200000000597</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>4.204174054875634E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="2"/>
+        <v>3.5710425245069159</v>
+      </c>
+      <c r="I26" s="8">
+        <f t="shared" si="3"/>
+        <v>21.34200292406879</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="5"/>
+        <v>2.0516432777492825E-3</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="6"/>
+        <v>20.491739965086648</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="12">
+        <v>6.5337815126050761E-2</v>
+      </c>
+      <c r="O26" s="11">
+        <v>1.2701260762794046E-2</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0.12496774276595007</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>38</v>
+      </c>
+      <c r="R26" t="s">
+        <v>19</v>
+      </c>
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" t="s">
+        <v>24</v>
+      </c>
+      <c r="V26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>900</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1912.3876</v>
+      </c>
+      <c r="E27" s="9">
+        <v>9.2397525278283297</v>
+      </c>
+      <c r="F27" s="9">
+        <f>D27-D26</f>
+        <v>23.375999999999749</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>1.237472549136265E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f t="shared" si="2"/>
+        <v>1.4955655245984192</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" si="3"/>
+        <v>15.630207848149308</v>
+      </c>
+      <c r="J27" s="11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="11">
+        <f t="shared" si="5"/>
+        <v>7.9243541927467962E-4</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="6"/>
+        <v>15.616068124124617</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="12">
+        <v>-7.0104201680672024E-2</v>
+      </c>
+      <c r="O27" s="11">
+        <v>7.5872380206647161E-3</v>
+      </c>
+      <c r="P27" s="13">
+        <v>7.018570129267887E-2</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>38</v>
+      </c>
+      <c r="R27" t="s">
+        <v>19</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>77</v>
+      </c>
+      <c r="U27" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="11">
+        <f>AVERAGE((F27/D26),(F25/D24))</f>
+        <v>1.1739573607098559E-2</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:Y25">
+    <sortCondition ref="D2:D25"/>
+    <sortCondition ref="Q2:Q25"/>
+    <sortCondition ref="T2:T25"/>
+    <sortCondition ref="U2:U25"/>
+    <sortCondition ref="S2:S25"/>
+    <sortCondition ref="A2:A25"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="0" style="9" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="9">
+        <v>990.45060000000024</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2.7575420954471848</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E19" si="0">C4*C4</f>
+        <v>7.6040384081632508</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="9">
+        <v>992.9047999999998</v>
+      </c>
+      <c r="C5" s="9">
+        <v>3.1992857876439285</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>10.235429551020431</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1889.0116000000003</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5.1441991741044797</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>26.462785142857211</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1773.2163999999996</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6.6778420564290428</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>44.593574530612464</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1912.3876</v>
+      </c>
+      <c r="C8" s="9">
+        <v>9.2397525278283297</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>85.373026775510013</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1564.5955999999999</v>
+      </c>
+      <c r="C9" s="9">
+        <v>7.2093055398801642</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>51.974086367346828</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1582.4970000000003</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5.2254054622486192</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>27.304862244897706</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="9">
+        <v>999.27219999999988</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.951710877108523</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.7125971020407658</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <f>AVERAGE(B4:B11)</f>
+        <v>1463.0419750000001</v>
+      </c>
+      <c r="P11" s="9">
+        <f>SQRT(SUM(E4:E11)/COUNT(E4:E11))</f>
+        <v>5.7256047728869728</v>
+      </c>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="9">
+        <v>971.02320000000009</v>
+      </c>
+      <c r="C12" s="9">
+        <v>6.0707937281541655</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>36.854536489795954</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N12" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="9">
+        <f>AVERAGE(B12:B19)</f>
+        <v>1415.7325749999998</v>
+      </c>
+      <c r="P12" s="9">
+        <f>SQRT(SUM(E12:E19)/COUNT(C12:C19))</f>
+        <v>12.549573139646288</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" ref="Q12" si="1">O12-O11</f>
+        <v>-47.309400000000323</v>
+      </c>
+      <c r="R12" s="11">
+        <f t="shared" ref="R12" si="2">Q12/O11</f>
+        <v>-3.2336324458497046E-2</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" ref="S12" si="3">SQRT((P11*P11+P12*P12)/50)</f>
+        <v>1.950765675331805</v>
+      </c>
+      <c r="T12" s="8">
+        <f>ABS(Q12)/S12</f>
+        <v>24.25170823858867</v>
+      </c>
+      <c r="U12" s="11">
+        <f t="shared" ref="U12" si="4">1-TDIST(T12,98,2)</f>
+        <v>1</v>
+      </c>
+      <c r="V12" s="11">
+        <f t="shared" ref="V12" si="5">SQRT(S12*S12/O11/O11+Q12*Q12*P11*P11/O11/O11/O11/O11)</f>
+        <v>1.3393545546910434E-3</v>
+      </c>
+      <c r="W12" s="9">
+        <f>ABS(R12)/V12</f>
+        <v>24.1432146142634</v>
+      </c>
+      <c r="X12" s="11">
+        <f>1-TDIST(W12,98,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="9">
+        <v>954.93219999999997</v>
+      </c>
+      <c r="C13" s="9">
+        <v>14.750407713493404</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>217.57452771428572</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="9"/>
+      <c r="S13" s="17"/>
+      <c r="W13" s="19"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1792.8894</v>
+      </c>
+      <c r="C14" s="9">
+        <v>12.99067254</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>168.75757304151006</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1751.9646</v>
+      </c>
+      <c r="C15" s="9">
+        <v>11.362515388732533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>129.1067559591836</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="9">
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="C16" s="9">
+        <v>24.721538189380109</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>611.15445044897911</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="9">
+        <v>1533.6760000000002</v>
+      </c>
+      <c r="C17" s="9">
+        <v>4.846669380268561</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>23.490204081632836</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>48</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="9">
+        <v>1545.5160000000001</v>
+      </c>
+      <c r="C18" s="9">
+        <v>6.438543693876686</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>41.454844897959241</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="9">
+        <v>963.06079999999986</v>
+      </c>
+      <c r="C19" s="9">
+        <v>5.6161726527330202</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>31.541395265306249</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:K19">
+    <sortCondition ref="H4:H19"/>
+    <sortCondition ref="A4:A19"/>
+    <sortCondition ref="J4:J19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7601,7 +11475,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y123"/>
   <sheetViews>
@@ -11666,11 +15540,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1201"/>
   <sheetViews>
-    <sheetView topLeftCell="S25" workbookViewId="0">
+    <sheetView topLeftCell="N11" workbookViewId="0">
       <selection activeCell="AH57" sqref="AH57"/>
     </sheetView>
   </sheetViews>
@@ -34910,131 +38784,543 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:M5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="9"/>
-    <col min="6" max="6" width="9.140625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="9" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="8" customWidth="1"/>
-    <col min="10" max="11" width="13.5703125" style="9" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="11" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="13" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>1792.8894</v>
+      </c>
+      <c r="D2">
+        <v>12.99067254</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <f>C3-C2</f>
+        <v>19.908999999999651</v>
+      </c>
+      <c r="H2">
+        <f>SQRT(2*(D2*D2+D3*D3)/2/F2)</f>
+        <v>3.949460782158722</v>
+      </c>
+      <c r="I2">
+        <f>G2/H2</f>
+        <v>5.0409413077188878</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3">
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="D3">
+        <v>24.721538189380109</v>
+      </c>
+      <c r="G3" s="11">
+        <f>G2/C2</f>
+        <v>1.1104421722834466E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
+        <v>1889.0116000000003</v>
+      </c>
+      <c r="D5">
+        <v>5.1441991741044797</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <f>C6-C5</f>
+        <v>23.375999999999749</v>
+      </c>
+      <c r="H5">
+        <f>SQRT(2*(D5*D5+D6*D6)/2/F5)</f>
+        <v>1.4955655245984192</v>
+      </c>
+      <c r="I5">
+        <f>G5/H5</f>
+        <v>15.630207848149308</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6">
+        <v>1912.3876</v>
+      </c>
+      <c r="D6">
+        <v>9.2397525278283297</v>
+      </c>
+      <c r="G6" s="11">
+        <f>G5/C5</f>
+        <v>1.237472549136265E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7">
+        <f>F2-1+F5-1</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1792.8894</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12.99067254</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="9">
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="E13" s="9">
+        <v>24.721538189380109</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" ref="F13" si="0">D13-D12</f>
+        <v>19.908999999999651</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" ref="G13" si="1">F13/D12</f>
+        <v>1.1104421722834466E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <f t="shared" ref="H13" si="2">SQRT((E12*E12+E13*E13)/50)</f>
+        <v>3.949460782158722</v>
+      </c>
+      <c r="I13" s="8">
+        <f>ABS(F13)/H13</f>
+        <v>5.0409413077188878</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" ref="J13" si="3">1-TDIST(I13,98,2)</f>
+        <v>0.99999787819938424</v>
+      </c>
+      <c r="K13" s="11">
+        <f t="shared" ref="K13" si="4">SQRT(H13*H13/D12/D12+F13*F13*E12*E12/D12/D12/D12/D12)</f>
+        <v>2.2043157477316514E-3</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" ref="L13" si="5">G13/K13</f>
+        <v>5.0375821768099502</v>
+      </c>
+      <c r="M13" s="11">
+        <f>1-TDIST(L13,98,1)</f>
+        <v>0.99999892421841152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1050</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1889.0116000000003</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5.1441991741044797</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>900</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1912.3876</v>
+      </c>
+      <c r="E15" s="9">
+        <v>9.2397525278283297</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" ref="F15" si="6">D15-D14</f>
+        <v>23.375999999999749</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" ref="G15" si="7">F15/D14</f>
+        <v>1.237472549136265E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" ref="H15" si="8">SQRT((E14*E14+E15*E15)/50)</f>
+        <v>1.4955655245984192</v>
+      </c>
+      <c r="I15" s="8">
+        <f>ABS(F15)/H15</f>
+        <v>15.630207848149308</v>
+      </c>
+      <c r="J15" s="11">
+        <f t="shared" ref="J15" si="9">1-TDIST(I15,98,2)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" ref="K15" si="10">SQRT(H15*H15/D14/D14+F15*F15*E14*E14/D14/D14/D14/D14)</f>
+        <v>7.9243541927467962E-4</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" ref="L15" si="11">G15/K15</f>
+        <v>15.616068124124617</v>
+      </c>
+      <c r="M15" s="11">
+        <f>1-TDIST(L15,98,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="9">
+        <f>(50*D12+50*D14)/100</f>
+        <v>1840.9505000000001</v>
+      </c>
+      <c r="E17" s="9">
+        <f>SQRT((E12*E12*49+E14*E14*49)/99)</f>
+        <v>9.8297618326799796</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="9">
+        <f>(50*D13+50*D15)/100</f>
+        <v>1862.5929999999998</v>
+      </c>
+      <c r="E18" s="9">
+        <f>SQRT((E13*E13*49+E15*E15*49)/99)</f>
+        <v>18.567334840270068</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18" si="12">D18-D17</f>
+        <v>21.6424999999997</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" ref="G18" si="13">F18/D17</f>
+        <v>1.1756155312160592E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <f t="shared" ref="H18" si="14">SQRT((E17*E17+E18*E18)/50)</f>
+        <v>2.9710945483370899</v>
+      </c>
+      <c r="I18" s="8">
+        <f>ABS(F18)/H18</f>
+        <v>7.2843524996917122</v>
+      </c>
+      <c r="J18" s="11">
+        <f t="shared" ref="J18" si="15">1-TDIST(I18,98,2)</f>
+        <v>0.99999999991754462</v>
+      </c>
+      <c r="K18" s="11">
+        <f t="shared" ref="K18" si="16">SQRT(H18*H18/D17/D17+F18*F18*E17*E17/D17/D17/D17/D17)</f>
+        <v>1.6151118925367652E-3</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" ref="L18" si="17">G18/K18</f>
+        <v>7.2788488317647522</v>
+      </c>
+      <c r="M18" s="11">
+        <f>1-TDIST(L18,98,1)</f>
+        <v>0.99999999995766642</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="9"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="20" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18" t="s">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19" t="s">
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
       <c r="Q1" t="s">
         <v>3</v>
       </c>
       <c r="R1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="S1" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="T1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D2" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" t="s">
         <v>111</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="L2" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" t="s">
         <v>73</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>108</v>
@@ -35042,67 +39328,61 @@
       <c r="E3" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" t="s">
         <v>113</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" t="s">
         <v>111</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" t="s">
         <v>116</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" t="s">
         <v>73</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" t="s">
         <v>74</v>
       </c>
       <c r="Q3" t="s">
         <v>3</v>
       </c>
       <c r="R3" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="S3" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>500</v>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D4" s="9">
         <v>356.92099999999994</v>
@@ -35110,195 +39390,161 @@
       <c r="E4" s="9">
         <v>3.7492944914574844</v>
       </c>
-      <c r="N4" s="12">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4">
         <v>-0.12095798319327702</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4">
         <v>3.2261531727868178E-2</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4">
         <v>0.62334668548942795</v>
       </c>
       <c r="Q4" t="s">
         <v>2</v>
       </c>
       <c r="R4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="T4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>550</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
       <c r="D5" s="9">
-        <v>358.32139999999998</v>
+        <v>361.45620000000002</v>
       </c>
       <c r="E5" s="9">
-        <v>1.7156911024959227</v>
+        <v>8.8655987032657286</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" ref="F5:F26" si="0">D5-D4</f>
-        <v>1.4004000000000474</v>
-      </c>
-      <c r="G5" s="17">
+        <f t="shared" ref="F5" si="0">D5-D4</f>
+        <v>4.5352000000000885</v>
+      </c>
+      <c r="G5" s="11">
         <f>F5/D4</f>
-        <v>3.9235573138034678E-3</v>
+        <v>1.2706453248758378E-2</v>
       </c>
       <c r="H5" s="9">
         <f>SQRT((E4*E4+E5*E5)/50)</f>
-        <v>0.58310899740712474</v>
+        <v>1.3612938665183238</v>
       </c>
       <c r="I5" s="8">
         <f>F5/H5</f>
-        <v>2.4016093152860285</v>
+        <v>3.3315363504864819</v>
       </c>
       <c r="J5" s="11">
-        <f t="shared" ref="J5:J27" si="1">1-TDIST(I5,98,2)</f>
-        <v>0.98179167205799567</v>
-      </c>
-      <c r="K5" s="14">
+        <f t="shared" ref="J5:J7" si="1">1-TDIST(I5,98,2)</f>
+        <v>0.99878101272725894</v>
+      </c>
+      <c r="K5" s="11">
         <f>SQRT(H5*H5/D4/D4+F5*F5*E4*E4/D4/D4/D4/D4)</f>
-        <v>1.6342398619276738E-3</v>
+        <v>3.8163269384007374E-3</v>
       </c>
       <c r="L5" s="9">
         <f>G5/K5</f>
-        <v>2.4008454359786704</v>
+        <v>3.3294980890927337</v>
       </c>
       <c r="M5" s="11">
         <f>1-TDIST(L5,98,1)</f>
-        <v>0.9908778963913677</v>
-      </c>
-      <c r="N5" s="12">
-        <v>5.2331812725090097E-2</v>
-      </c>
-      <c r="O5" s="11">
-        <v>3.0501885012377664E-2</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0.60335193759481431</v>
+        <v>0.99938648904078486</v>
+      </c>
+      <c r="N5">
+        <v>-0.30147178871548591</v>
+      </c>
+      <c r="O5">
+        <v>3.4004673435583756E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.7036898086186002</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
       </c>
       <c r="R5" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="S5" t="s">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="D6" s="9">
-        <v>361.45620000000002</v>
+        <v>356.92099999999994</v>
       </c>
       <c r="E6" s="9">
-        <v>8.8655987032657286</v>
-      </c>
-      <c r="F6" s="9">
-        <f t="shared" si="0"/>
-        <v>3.1348000000000411</v>
-      </c>
-      <c r="G6" s="17">
-        <f>F6/D5</f>
-        <v>8.7485704175079733E-3</v>
-      </c>
-      <c r="H6" s="9">
-        <f>SQRT((E5*E5+E6*E6)/50)</f>
-        <v>1.2770468771860384</v>
-      </c>
-      <c r="I6" s="8">
-        <f t="shared" ref="I6:I27" si="2">F6/H6</f>
-        <v>2.4547258648073638</v>
-      </c>
-      <c r="J6" s="11">
-        <f t="shared" si="1"/>
-        <v>0.98413774441989799</v>
-      </c>
-      <c r="K6" s="14">
-        <f>SQRT(H6*H6/D5/D5+F6*F6*E5*E5/D5/D5/D5/D5)</f>
-        <v>3.5642166046393879E-3</v>
-      </c>
-      <c r="L6" s="9">
-        <f>G6/K6</f>
-        <v>2.4545563269416157</v>
-      </c>
-      <c r="M6" s="11">
-        <f t="shared" ref="M6:M27" si="3">1-TDIST(L6,98,1)</f>
-        <v>0.99206535346362446</v>
-      </c>
-      <c r="N6" s="12">
-        <v>-0.30147178871548591</v>
-      </c>
-      <c r="O6" s="11">
-        <v>3.4004673435583756E-2</v>
-      </c>
-      <c r="P6" s="13">
-        <v>0.7036898086186002</v>
+        <v>3.7492944914574844</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6">
+        <v>-0.12095798319327702</v>
+      </c>
+      <c r="O6">
+        <v>3.2261531727868178E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.62334668548942795</v>
       </c>
       <c r="Q6" t="s">
         <v>2</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="S6" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" t="s">
-        <v>49</v>
-      </c>
-      <c r="V6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1000</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9">
         <v>373.12179999999984</v>
@@ -35307,1663 +39553,981 @@
         <v>1.4300131153958293</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
-        <v>11.665599999999813</v>
-      </c>
-      <c r="G7" s="17">
+        <f t="shared" ref="F7" si="2">D7-D6</f>
+        <v>16.200799999999902</v>
+      </c>
+      <c r="G7" s="11">
         <f>F7/D6</f>
-        <v>3.2273896532968069E-2</v>
+        <v>4.5390436539177868E-2</v>
       </c>
       <c r="H7" s="9">
         <f>SQRT((E6*E6+E7*E7)/50)</f>
-        <v>1.269990376952133</v>
+        <v>0.56748826761224802</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="2"/>
-        <v>9.1855814120389194</v>
+        <f>F7/H7</f>
+        <v>28.548255399474698</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="1"/>
-        <v>0.99999999999999289</v>
-      </c>
-      <c r="K7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
         <f>SQRT(H7*H7/D6/D6+F7*F7*E6*E6/D6/D6/D6/D6)</f>
-        <v>3.6016079170389606E-3</v>
+        <v>1.6599097643706414E-3</v>
       </c>
       <c r="L7" s="9">
         <f>G7/K7</f>
-        <v>8.9609688995524674</v>
+        <v>27.34512291780376</v>
       </c>
       <c r="M7" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99999999999998912</v>
-      </c>
-      <c r="N7" s="12">
+        <f>1-TDIST(L7,98,1)</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
         <v>1.9318607442977569E-2</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7">
         <v>1.3509391791578189E-2</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7">
         <v>0.33917570343090958</v>
       </c>
       <c r="Q7" t="s">
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="S7" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
-      </c>
-      <c r="U7" t="s">
-        <v>49</v>
-      </c>
-      <c r="V7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1200</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="9">
-        <v>649.7675999999999</v>
-      </c>
-      <c r="E8" s="9">
-        <v>8.3671484816683854</v>
-      </c>
-      <c r="F8" s="9">
-        <f t="shared" si="0"/>
-        <v>276.64580000000007</v>
-      </c>
-      <c r="G8" s="17">
-        <f>F8/D7</f>
-        <v>0.74143563844299687</v>
-      </c>
-      <c r="H8" s="9">
-        <f>SQRT((E7*E7+E8*E8)/50)</f>
-        <v>1.2004508421796343</v>
-      </c>
-      <c r="I8" s="8">
-        <f t="shared" ref="I8" si="4">F8/H8</f>
-        <v>230.45158558737808</v>
-      </c>
-      <c r="J8" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="14">
-        <f>SQRT(H8*H8/D7/D7+F8*F8*E7*E7/D7/D7/D7/D7)</f>
-        <v>4.292529705204778E-3</v>
-      </c>
-      <c r="L8" s="9">
-        <f>G8/K8</f>
-        <v>172.72696739733479</v>
-      </c>
-      <c r="M8" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N8" s="12">
-        <v>-0.17021848739495818</v>
-      </c>
-      <c r="O8" s="11">
-        <v>2.0343667590923056E-2</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0.53552997974396255</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>22</v>
-      </c>
-      <c r="R8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U8" t="s">
-        <v>55</v>
-      </c>
-      <c r="V8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>250</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="9">
-        <v>954.93219999999997</v>
-      </c>
-      <c r="E9" s="9">
-        <v>14.750407713493404</v>
-      </c>
-      <c r="F9" s="9">
-        <f t="shared" si="0"/>
-        <v>305.16460000000006</v>
-      </c>
-      <c r="G9" s="17">
-        <f>F9/D8</f>
-        <v>0.46965191862444372</v>
-      </c>
-      <c r="H9" s="9">
-        <f>SQRT((E8*E8+E9*E9)/50)</f>
-        <v>2.3982647953408787</v>
-      </c>
-      <c r="I9" s="8">
-        <f t="shared" si="2"/>
-        <v>127.24391426369803</v>
-      </c>
-      <c r="J9" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="14">
-        <f>SQRT(H9*H9/D8/D8+F9*F9*E8*E8/D8/D8/D8/D8)</f>
-        <v>7.0851065659358319E-3</v>
-      </c>
-      <c r="L9" s="9">
-        <f>G9/K9</f>
-        <v>66.28720602206073</v>
-      </c>
-      <c r="M9" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N9" s="12">
-        <v>-0.55968931572629033</v>
-      </c>
-      <c r="O9" s="11">
-        <v>3.7943989522018211E-2</v>
-      </c>
-      <c r="P9" s="13">
-        <v>0.66031019210257869</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>2</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="9">
-        <v>963.06079999999986</v>
-      </c>
-      <c r="E10" s="9">
-        <v>5.6161726527330202</v>
-      </c>
-      <c r="F10" s="9">
-        <f t="shared" si="0"/>
-        <v>8.1285999999998921</v>
-      </c>
-      <c r="G10" s="17">
-        <f>F10/D9</f>
-        <v>8.5122273602250432E-3</v>
-      </c>
-      <c r="H10" s="9">
-        <f>SQRT((E9*E9+E10*E10)/50)</f>
-        <v>2.2321107632892772</v>
-      </c>
-      <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>3.6416651600306098</v>
-      </c>
-      <c r="J10" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99956495429028858</v>
-      </c>
-      <c r="K10" s="14">
-        <f>SQRT(H10*H10/D9/D9+F10*F10*E9*E9/D9/D9/D9/D9)</f>
-        <v>2.3411498628460861E-3</v>
-      </c>
-      <c r="L10" s="9">
-        <f>G10/K10</f>
-        <v>3.6359173307585313</v>
-      </c>
-      <c r="M10" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99977816265773789</v>
-      </c>
-      <c r="N10" s="12">
-        <v>-8.7739735894358239E-2</v>
-      </c>
-      <c r="O10" s="11">
-        <v>1.5622692057314353E-2</v>
-      </c>
-      <c r="P10" s="13">
-        <v>0.4087305238282542</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>2</v>
-      </c>
-      <c r="R10" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" t="s">
-        <v>5</v>
-      </c>
-      <c r="T10" t="s">
-        <v>125</v>
-      </c>
-      <c r="U10" t="s">
-        <v>48</v>
-      </c>
-      <c r="V10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="9">
-        <v>971.02320000000009</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6.0707937281541655</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="0"/>
-        <v>7.9624000000002297</v>
-      </c>
-      <c r="G11" s="17">
-        <f>F11/D10</f>
-        <v>8.2678061447420872E-3</v>
-      </c>
-      <c r="H11" s="9">
-        <f>SQRT((E10*E10+E11*E11)/50)</f>
-        <v>1.1695805380998967</v>
-      </c>
-      <c r="I11" s="8">
-        <f t="shared" si="2"/>
-        <v>6.8079108198362839</v>
-      </c>
-      <c r="J11" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99999999920170912</v>
-      </c>
-      <c r="K11" s="14">
-        <f>SQRT(H11*H11/D10/D10+F11*F11*E10*E10/D10/D10/D10/D10)</f>
-        <v>1.2153977195797389E-3</v>
-      </c>
-      <c r="L11" s="9">
-        <f>G11/K11</f>
-        <v>6.8025519643075647</v>
-      </c>
-      <c r="M11" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99999999959063979</v>
-      </c>
-      <c r="N11" s="12">
-        <v>-0.2850352941176475</v>
-      </c>
-      <c r="O11" s="11">
-        <v>4.6951899023641004E-2</v>
-      </c>
-      <c r="P11" s="13">
-        <v>0.62962039214265531</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>2</v>
-      </c>
-      <c r="R11" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T11" t="s">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s">
-        <v>48</v>
-      </c>
-      <c r="V11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>700</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="9">
-        <v>990.45060000000024</v>
-      </c>
-      <c r="E12" s="9">
-        <v>2.7575420954471848</v>
-      </c>
-      <c r="F12" s="9">
-        <f t="shared" si="0"/>
-        <v>19.427400000000148</v>
-      </c>
-      <c r="G12" s="17">
-        <f>F12/D11</f>
-        <v>2.000714298072399E-2</v>
-      </c>
-      <c r="H12" s="9">
-        <f>SQRT((E11*E11+E12*E12)/50)</f>
-        <v>0.94295890576375807</v>
-      </c>
-      <c r="I12" s="8">
-        <f t="shared" si="2"/>
-        <v>20.602594536465777</v>
-      </c>
-      <c r="J12" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="14">
-        <f>SQRT(H12*H12/D11/D11+F12*F12*E11*E11/D11/D11/D11/D11)</f>
-        <v>9.7912088660144763E-4</v>
-      </c>
-      <c r="L12" s="9">
-        <f>G12/K12</f>
-        <v>20.43378223721615</v>
-      </c>
-      <c r="M12" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="12">
-        <v>-1.844657863145311E-2</v>
-      </c>
-      <c r="O12" s="11">
-        <v>6.6895002842963557E-3</v>
-      </c>
-      <c r="P12" s="13">
-        <v>-7.0685629600595101E-2</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>2</v>
-      </c>
-      <c r="R12" t="s">
-        <v>19</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1</v>
-      </c>
-      <c r="T12" t="s">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s">
-        <v>48</v>
-      </c>
-      <c r="V12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>850</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="9">
-        <v>992.9047999999998</v>
-      </c>
-      <c r="E13" s="9">
-        <v>3.1992857876439285</v>
-      </c>
-      <c r="F13" s="9">
-        <f t="shared" si="0"/>
-        <v>2.4541999999995596</v>
-      </c>
-      <c r="G13" s="17">
-        <f>F13/D12</f>
-        <v>2.4778620963019854E-3</v>
-      </c>
-      <c r="H13" s="9">
-        <f>SQRT((E12*E12+E13*E13)/50)</f>
-        <v>0.59731847383424674</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" si="2"/>
-        <v>4.1086959595369708</v>
-      </c>
-      <c r="J13" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99991737201653774</v>
-      </c>
-      <c r="K13" s="14">
-        <f>SQRT(H13*H13/D12/D12+F13*F13*E12*E12/D12/D12/D12/D12)</f>
-        <v>6.0311695836416581E-4</v>
-      </c>
-      <c r="L13" s="9">
-        <f>G13/K13</f>
-        <v>4.1084271664698191</v>
-      </c>
-      <c r="M13" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99995864501053611</v>
-      </c>
-      <c r="N13" s="12">
-        <v>3.1756062424970283E-2</v>
-      </c>
-      <c r="O13" s="11">
-        <v>9.9259849018854332E-3</v>
-      </c>
-      <c r="P13" s="13">
-        <v>0.33588676847119475</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>2</v>
-      </c>
-      <c r="R13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T13" t="s">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s">
-        <v>49</v>
-      </c>
-      <c r="V13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>650</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="9">
-        <v>999.27219999999988</v>
-      </c>
-      <c r="E14" s="9">
-        <v>2.951710877108523</v>
-      </c>
-      <c r="F14" s="9">
-        <f t="shared" si="0"/>
-        <v>6.3674000000000888</v>
-      </c>
-      <c r="G14" s="17">
-        <f>F14/D13</f>
-        <v>6.4129008138545506E-3</v>
-      </c>
-      <c r="H14" s="9">
-        <f>SQRT((E13*E13+E14*E14)/50)</f>
-        <v>0.61559770391159185</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="2"/>
-        <v>10.343443387687705</v>
-      </c>
-      <c r="J14" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K14" s="14">
-        <f>SQRT(H14*H14/D13/D13+F14*F14*E13*E13/D13/D13/D13/D13)</f>
-        <v>6.2034094345132416E-4</v>
-      </c>
-      <c r="L14" s="9">
-        <f>G14/K14</f>
-        <v>10.337703615330925</v>
-      </c>
-      <c r="M14" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="12">
-        <v>-4.9785834333733445E-2</v>
-      </c>
-      <c r="O14" s="11">
-        <v>1.6866771986321142E-2</v>
-      </c>
-      <c r="P14" s="13">
-        <v>-8.2636407097676556E-2</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>2</v>
-      </c>
-      <c r="R14" t="s">
-        <v>19</v>
-      </c>
-      <c r="S14" t="s">
-        <v>1</v>
-      </c>
-      <c r="T14" t="s">
-        <v>125</v>
-      </c>
-      <c r="U14" t="s">
-        <v>48</v>
-      </c>
-      <c r="V14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>410</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1352.5909999999994</v>
-      </c>
-      <c r="E15" s="9">
-        <v>28.585280160193218</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" si="0"/>
-        <v>353.31879999999956</v>
-      </c>
-      <c r="G15" s="17">
-        <f>F15/D14</f>
-        <v>0.35357613270938548</v>
-      </c>
-      <c r="H15" s="9">
-        <f>SQRT((E14*E14+E15*E15)/50)</f>
-        <v>4.0640640716868051</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="2"/>
-        <v>86.937310477330456</v>
-      </c>
-      <c r="J15" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K15" s="14">
-        <f>SQRT(H15*H15/D14/D14+F15*F15*E14*E14/D14/D14/D14/D14)</f>
-        <v>4.1989863755218073E-3</v>
-      </c>
-      <c r="L15" s="9">
-        <f>G15/K15</f>
-        <v>84.205115494199873</v>
-      </c>
-      <c r="M15" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="12">
-        <v>1.2886746698679483</v>
-      </c>
-      <c r="O15" s="11">
-        <v>4.5081757556552061E-2</v>
-      </c>
-      <c r="P15" s="13">
-        <v>0.87977329266634863</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>2</v>
-      </c>
-      <c r="R15" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s">
-        <v>46</v>
-      </c>
-      <c r="U15" t="s">
-        <v>49</v>
-      </c>
-      <c r="V15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>200</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="9">
-        <v>1533.6760000000002</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.846669380268561</v>
-      </c>
-      <c r="F16" s="9">
-        <f t="shared" si="0"/>
-        <v>181.08500000000072</v>
-      </c>
-      <c r="G16" s="17">
-        <f>F16/D15</f>
-        <v>0.13388008644150434</v>
-      </c>
-      <c r="H16" s="9">
-        <f>SQRT((E15*E15+E16*E16)/50)</f>
-        <v>4.1002644937085924</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="2"/>
-        <v>44.164224107458395</v>
-      </c>
-      <c r="J16" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K16" s="14">
-        <f>SQRT(H16*H16/D15/D15+F16*F16*E15*E15/D15/D15/D15/D15)</f>
-        <v>4.1466723886741282E-3</v>
-      </c>
-      <c r="L16" s="9">
-        <f>G16/K16</f>
-        <v>32.286149927631882</v>
-      </c>
-      <c r="M16" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="12">
-        <v>-1.7863145258102814E-2</v>
-      </c>
-      <c r="O16" s="11">
-        <v>3.685653766858137E-3</v>
-      </c>
-      <c r="P16" s="13">
-        <v>0.23450823954512137</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>38</v>
-      </c>
-      <c r="R16" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" t="s">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s">
-        <v>48</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>350</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1545.5160000000001</v>
-      </c>
-      <c r="E17" s="9">
-        <v>6.438543693876686</v>
-      </c>
-      <c r="F17" s="9">
-        <f t="shared" si="0"/>
-        <v>11.839999999999918</v>
-      </c>
-      <c r="G17" s="17">
-        <f>F17/D16</f>
-        <v>7.7200138751600186E-3</v>
-      </c>
-      <c r="H17" s="9">
-        <f>SQRT((E16*E16+E17*E17)/50)</f>
-        <v>1.139693370864217</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="2"/>
-        <v>10.388759207243416</v>
-      </c>
-      <c r="J17" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K17" s="14">
-        <f>SQRT(H17*H17/D16/D16+F17*F17*E16*E16/D16/D16/D16/D16)</f>
-        <v>7.4351257929099776E-4</v>
-      </c>
-      <c r="L17" s="9">
-        <f>G17/K17</f>
-        <v>10.383165114061292</v>
-      </c>
-      <c r="M17" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N17" s="12">
-        <v>-4.85810324129652E-2</v>
-      </c>
-      <c r="O17" s="11">
-        <v>7.5453448361572379E-3</v>
-      </c>
-      <c r="P17" s="13">
-        <v>-0.14518215068370854</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>38</v>
-      </c>
-      <c r="R17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" t="s">
-        <v>5</v>
-      </c>
-      <c r="T17" t="s">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s">
-        <v>49</v>
-      </c>
-      <c r="V17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>800</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1564.5955999999999</v>
-      </c>
-      <c r="E18" s="9">
-        <v>7.2093055398801642</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="0"/>
-        <v>19.0795999999998</v>
-      </c>
-      <c r="G18" s="17">
-        <f>F18/D17</f>
-        <v>1.2345132628843571E-2</v>
-      </c>
-      <c r="H18" s="9">
-        <f>SQRT((E17*E17+E18*E18)/50)</f>
-        <v>1.3669596282649028</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="2"/>
-        <v>13.957690926262211</v>
-      </c>
-      <c r="J18" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K18" s="14">
-        <f>SQRT(H18*H18/D17/D17+F18*F18*E17*E17/D17/D17/D17/D17)</f>
-        <v>8.8596208522584235E-4</v>
-      </c>
-      <c r="L18" s="9">
-        <f>G18/K18</f>
-        <v>13.93415455887895</v>
-      </c>
-      <c r="M18" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N18" s="12">
-        <v>0.32542424969987938</v>
-      </c>
-      <c r="O18" s="11">
-        <v>4.5139472574675855E-2</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0.55648356342922822</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>38</v>
-      </c>
-      <c r="R18" t="s">
-        <v>19</v>
-      </c>
-      <c r="S18" t="s">
-        <v>1</v>
-      </c>
-      <c r="T18" t="s">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s">
-        <v>48</v>
-      </c>
-      <c r="V18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>950</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1582.4970000000003</v>
-      </c>
-      <c r="E19" s="9">
-        <v>5.2254054622486192</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="0"/>
-        <v>17.901400000000422</v>
-      </c>
-      <c r="G19" s="17">
-        <f>F19/D18</f>
-        <v>1.1441550775165432E-2</v>
-      </c>
-      <c r="H19" s="9">
-        <f>SQRT((E18*E18+E19*E19)/50)</f>
-        <v>1.2591977494599054</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="2"/>
-        <v>14.216512067051172</v>
-      </c>
-      <c r="J19" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K19" s="14">
-        <f>SQRT(H19*H19/D18/D18+F19*F19*E18*E18/D18/D18/D18/D18)</f>
-        <v>8.0653207125611971E-4</v>
-      </c>
-      <c r="L19" s="9">
-        <f>G19/K19</f>
-        <v>14.186107636545664</v>
-      </c>
-      <c r="M19" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N19" s="12">
-        <v>-9.5764705882350355E-3</v>
-      </c>
-      <c r="O19" s="11">
-        <v>1.8326751210831489E-3</v>
-      </c>
-      <c r="P19" s="13">
-        <v>0.40876152167612223</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>38</v>
-      </c>
-      <c r="R19" t="s">
-        <v>19</v>
-      </c>
-      <c r="S19" t="s">
-        <v>1</v>
-      </c>
-      <c r="T19" t="s">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s">
-        <v>49</v>
-      </c>
-      <c r="V19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>150</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1751.9646</v>
-      </c>
-      <c r="E20" s="9">
-        <v>11.362515388732533</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="0"/>
-        <v>169.46759999999972</v>
-      </c>
-      <c r="G20" s="17">
-        <f>F20/D19</f>
-        <v>0.10708873381750467</v>
-      </c>
-      <c r="H20" s="9">
-        <f>SQRT((E19*E19+E20*E20)/50)</f>
-        <v>1.768680967297841</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="2"/>
-        <v>95.815810275218411</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K20" s="14">
-        <f>SQRT(H20*H20/D19/D19+F20*F20*E19*E19/D19/D19/D19/D19)</f>
-        <v>1.1722559290742074E-3</v>
-      </c>
-      <c r="L20" s="9">
-        <f>G20/K20</f>
-        <v>91.352691132966427</v>
-      </c>
-      <c r="M20" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="12">
-        <v>0.35175174069627968</v>
-      </c>
-      <c r="O20" s="11">
-        <v>3.095720697945888E-2</v>
-      </c>
-      <c r="P20" s="13">
-        <v>0.62097634484205255</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>38</v>
-      </c>
-      <c r="R20" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" t="s">
-        <v>5</v>
-      </c>
-      <c r="T20" t="s">
-        <v>77</v>
-      </c>
-      <c r="U20" t="s">
-        <v>48</v>
-      </c>
-      <c r="V20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>750</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1773.2163999999996</v>
-      </c>
-      <c r="E21" s="9">
-        <v>6.6778420564290428</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="0"/>
-        <v>21.251799999999548</v>
-      </c>
-      <c r="G21" s="17">
-        <f>F21/D20</f>
-        <v>1.2130267928929355E-2</v>
-      </c>
-      <c r="H21" s="9">
-        <f>SQRT((E20*E20+E21*E21)/50)</f>
-        <v>1.8638687211807385</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="2"/>
-        <v>11.40198328267282</v>
-      </c>
-      <c r="J21" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="14">
-        <f>SQRT(H21*H21/D20/D20+F21*F21*E20*E20/D20/D20/D20/D20)</f>
-        <v>1.06677837523422E-3</v>
-      </c>
-      <c r="L21" s="9">
-        <f>G21/K21</f>
-        <v>11.370935341903659</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="12">
-        <v>-0.16589099639856036</v>
-      </c>
-      <c r="O21" s="11">
-        <v>2.484200659385917E-2</v>
-      </c>
-      <c r="P21" s="13">
-        <v>0.40365507494175368</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>38</v>
-      </c>
-      <c r="R21" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" t="s">
-        <v>77</v>
-      </c>
-      <c r="U21" t="s">
-        <v>48</v>
-      </c>
-      <c r="V21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>600</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1783.0169999999998</v>
-      </c>
-      <c r="E22" s="9">
-        <v>6.6330041367054227</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="0"/>
-        <v>9.8006000000002587</v>
-      </c>
-      <c r="G22" s="17">
-        <f>F22/D21</f>
-        <v>5.5270185861129306E-3</v>
-      </c>
-      <c r="H22" s="9">
-        <f>SQRT((E21*E21+E22*E22)/50)</f>
-        <v>1.3310921711749619</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="2"/>
-        <v>7.3628259651991028</v>
-      </c>
-      <c r="J22" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99999999994349853</v>
-      </c>
-      <c r="K22" s="14">
-        <f>SQRT(H22*H22/D21/D21+F22*F22*E21*E21/D21/D21/D21/D21)</f>
-        <v>7.509539013728976E-4</v>
-      </c>
-      <c r="L22" s="9">
-        <f>G22/K22</f>
-        <v>7.359997166281989</v>
-      </c>
-      <c r="M22" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99999999997136113</v>
-      </c>
-      <c r="N22" s="12">
-        <v>0.29766098439375815</v>
-      </c>
-      <c r="O22" s="11">
-        <v>4.4875742312080746E-2</v>
-      </c>
-      <c r="P22" s="13">
-        <v>0.46389197118893388</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" t="s">
-        <v>92</v>
-      </c>
-      <c r="S22" t="s">
-        <v>123</v>
-      </c>
-      <c r="T22" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" t="s">
-        <v>24</v>
-      </c>
-      <c r="V22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>450</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="9">
-        <v>1784.9860000000001</v>
-      </c>
-      <c r="E23" s="9">
-        <v>8.924595228916532</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="0"/>
-        <v>1.9690000000002783</v>
-      </c>
-      <c r="G23" s="17">
-        <f>F23/D22</f>
-        <v>1.1043080352011667E-3</v>
-      </c>
-      <c r="H23" s="9">
-        <f>SQRT((E22*E22+E23*E23)/50)</f>
-        <v>1.572546621741632</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2521091411710039</v>
-      </c>
-      <c r="J23" s="11">
-        <f t="shared" si="1"/>
-        <v>0.78648983197837408</v>
-      </c>
-      <c r="K23" s="14">
-        <f>SQRT(H23*H23/D22/D22+F23*F23*E22*E22/D22/D22/D22/D22)</f>
-        <v>8.8196785627693303E-4</v>
-      </c>
-      <c r="L23" s="9">
-        <f>G23/K23</f>
-        <v>1.2520955580658033</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" si="3"/>
-        <v>0.89324245213803954</v>
-      </c>
-      <c r="N23" s="12">
-        <v>-0.11381128451380484</v>
-      </c>
-      <c r="O23" s="11">
-        <v>1.2752543011143579E-2</v>
-      </c>
-      <c r="P23" s="13">
-        <v>0.42831224696178144</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>38</v>
-      </c>
-      <c r="R23" t="s">
-        <v>21</v>
-      </c>
-      <c r="S23" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" t="s">
-        <v>24</v>
-      </c>
-      <c r="U23" t="s">
-        <v>24</v>
-      </c>
-      <c r="V23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1150</v>
-      </c>
-      <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="9">
-        <v>1792.8894</v>
-      </c>
-      <c r="E24" s="9">
-        <v>12.99067254</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="0"/>
-        <v>7.9033999999999196</v>
-      </c>
-      <c r="G24" s="17">
-        <f>F24/D23</f>
-        <v>4.4277097971636295E-3</v>
-      </c>
-      <c r="H24" s="9">
-        <f>SQRT((E23*E23+E24*E24)/50)</f>
-        <v>2.2289278725051189</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="2"/>
-        <v>3.5458303059027179</v>
-      </c>
-      <c r="J24" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99939799234976479</v>
-      </c>
-      <c r="K24" s="14">
-        <f>SQRT(H24*H24/D23/D23+F24*F24*E23*E23/D23/D23/D23/D23)</f>
-        <v>1.2489051007393071E-3</v>
-      </c>
-      <c r="L24" s="9">
-        <f>G24/K24</f>
-        <v>3.5452732113453487</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99969843228688238</v>
-      </c>
-      <c r="N24" s="12">
-        <v>0.22224681900000001</v>
-      </c>
-      <c r="O24" s="11">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="P24" s="13">
-        <v>0.24589059299999999</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>38</v>
-      </c>
-      <c r="R24" t="s">
-        <v>20</v>
-      </c>
-      <c r="S24" t="s">
-        <v>5</v>
-      </c>
-      <c r="T24" t="s">
-        <v>25</v>
-      </c>
-      <c r="U24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>300</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D25" s="9">
-        <v>1812.7983999999997</v>
-      </c>
-      <c r="E25" s="9">
-        <v>24.721538189380109</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="0"/>
-        <v>19.908999999999651</v>
-      </c>
-      <c r="G25" s="17">
-        <f>F25/D24</f>
-        <v>1.1104421722834466E-2</v>
-      </c>
-      <c r="H25" s="9">
-        <f>SQRT((E24*E24+E25*E25)/50)</f>
-        <v>3.949460782158722</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="2"/>
-        <v>5.0409413077188878</v>
-      </c>
-      <c r="J25" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99999787819938424</v>
-      </c>
-      <c r="K25" s="14">
-        <f>SQRT(H25*H25/D24/D24+F25*F25*E24*E24/D24/D24/D24/D24)</f>
-        <v>2.2043157477316514E-3</v>
-      </c>
-      <c r="L25" s="9">
-        <f>G25/K25</f>
-        <v>5.0375821768099502</v>
-      </c>
-      <c r="M25" s="11">
-        <f t="shared" si="3"/>
-        <v>0.99999892421841152</v>
-      </c>
-      <c r="N25" s="12">
-        <v>0.84584969987995262</v>
-      </c>
-      <c r="O25" s="11">
-        <v>3.4215091852306874E-2</v>
-      </c>
-      <c r="P25" s="13">
-        <v>0.34832118306774196</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>38</v>
-      </c>
-      <c r="R25" t="s">
-        <v>20</v>
-      </c>
-      <c r="S25" t="s">
-        <v>5</v>
-      </c>
-      <c r="T25" t="s">
-        <v>77</v>
-      </c>
-      <c r="U25" t="s">
-        <v>49</v>
-      </c>
-      <c r="V25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1050</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="9">
-        <v>1889.0116000000003</v>
-      </c>
-      <c r="E26" s="9">
-        <v>5.1441991741044797</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="0"/>
-        <v>76.213200000000597</v>
-      </c>
-      <c r="G26" s="17">
-        <f>F26/D25</f>
-        <v>4.204174054875634E-2</v>
-      </c>
-      <c r="H26" s="9">
-        <f>SQRT((E25*E25+E26*E26)/50)</f>
-        <v>3.5710425245069159</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="2"/>
-        <v>21.34200292406879</v>
-      </c>
-      <c r="J26" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="14">
-        <f>SQRT(H26*H26/D25/D25+F26*F26*E25*E25/D25/D25/D25/D25)</f>
-        <v>2.0516432777492825E-3</v>
-      </c>
-      <c r="L26" s="9">
-        <f>G26/K26</f>
-        <v>20.491739965086648</v>
-      </c>
-      <c r="M26" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="12">
-        <v>6.5337815126050761E-2</v>
-      </c>
-      <c r="O26" s="11">
-        <v>1.2701260762794046E-2</v>
-      </c>
-      <c r="P26" s="13">
-        <v>0.12496774276595007</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>38</v>
-      </c>
-      <c r="R26" t="s">
-        <v>19</v>
-      </c>
-      <c r="S26" t="s">
-        <v>1</v>
-      </c>
-      <c r="T26" t="s">
-        <v>25</v>
-      </c>
-      <c r="U26" t="s">
-        <v>24</v>
-      </c>
-      <c r="V26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>900</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="9">
-        <v>1912.3876</v>
-      </c>
-      <c r="E27" s="9">
-        <v>9.2397525278283297</v>
-      </c>
-      <c r="F27" s="9">
-        <f>D27-D26</f>
-        <v>23.375999999999749</v>
-      </c>
-      <c r="G27" s="17">
-        <f>F27/D26</f>
-        <v>1.237472549136265E-2</v>
-      </c>
-      <c r="H27" s="9">
-        <f>SQRT((E26*E26+E27*E27)/50)</f>
-        <v>1.4955655245984192</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="2"/>
-        <v>15.630207848149308</v>
-      </c>
-      <c r="J27" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K27" s="14">
-        <f>SQRT(H27*H27/D26/D26+F27*F27*E26*E26/D26/D26/D26/D26)</f>
-        <v>7.9243541927467962E-4</v>
-      </c>
-      <c r="L27" s="9">
-        <f>G27/K27</f>
-        <v>15.616068124124617</v>
-      </c>
-      <c r="M27" s="11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="N27" s="12">
-        <v>-7.0104201680672024E-2</v>
-      </c>
-      <c r="O27" s="11">
-        <v>7.5872380206647161E-3</v>
-      </c>
-      <c r="P27" s="13">
-        <v>7.018570129267887E-2</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>38</v>
-      </c>
-      <c r="R27" t="s">
-        <v>19</v>
-      </c>
-      <c r="S27" t="s">
-        <v>1</v>
-      </c>
-      <c r="T27" t="s">
-        <v>77</v>
-      </c>
-      <c r="U27" t="s">
-        <v>49</v>
-      </c>
-      <c r="V27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="D31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="11">
-        <f>AVERAGE((F27/D26),(F25/D24))</f>
-        <v>1.1739573607098559E-2</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:Y25">
-    <sortCondition ref="D2:D25"/>
-    <sortCondition ref="Q2:Q25"/>
-    <sortCondition ref="T2:T25"/>
-    <sortCondition ref="U2:U25"/>
-    <sortCondition ref="S2:S25"/>
-    <sortCondition ref="A2:A25"/>
-  </sortState>
   <mergeCells count="4">
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="H1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="C2" s="9">
+        <v>24.721538189380109</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1912.3876</v>
+      </c>
+      <c r="C3" s="9">
+        <v>9.2397525278283297</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3" si="0">B3-B2</f>
+        <v>99.589200000000346</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3" si="1">D3/B2</f>
+        <v>5.4936721038588938E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3" si="2">SQRT((C2*C2+C3*C3)/50)</f>
+        <v>3.732365140830916</v>
+      </c>
+      <c r="G3" s="8">
+        <f>ABS(D3)/F3</f>
+        <v>26.682598363843187</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" ref="H3" si="3">1-TDIST(G3,98,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" ref="I3" si="4">SQRT(F3*F3/B2/B2+D3*D3*C2*C2/B2/B2/B2/B2)</f>
+        <v>2.1909664505917821E-3</v>
+      </c>
+      <c r="J3" s="9">
+        <f t="shared" ref="J3" si="5">E3/I3</f>
+        <v>25.074195464631821</v>
+      </c>
+      <c r="K3" s="11">
+        <f>1-TDIST(J3,98,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>954.93219999999997</v>
+      </c>
+      <c r="C4">
+        <v>14.750407713493404</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>361.45620000000002</v>
+      </c>
+      <c r="C5">
+        <v>8.8655987032657286</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ref="D5" si="0">B5-B4</f>
+        <v>-593.47599999999989</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5" si="1">D5/B4</f>
+        <v>-0.62148495987463814</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" ref="F5" si="2">SQRT((C4*C4+C5*C5)/50)</f>
+        <v>2.4338174462421485</v>
+      </c>
+      <c r="G5" s="8">
+        <f>ABS(D5)/F5</f>
+        <v>243.84573334221759</v>
+      </c>
+      <c r="H5" s="11">
+        <f t="shared" ref="H5" si="3">1-TDIST(G5,98,2)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="22">
+        <f t="shared" ref="I5" si="4">SQRT(F5*F5/B4/B4+D5*D5*C4*C4/B4/B4/B4/B4)</f>
+        <v>9.9323664039508534E-3</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5" si="5">E5/I5</f>
+        <v>-62.571690833659396</v>
+      </c>
+      <c r="K5" s="11" t="e">
+        <f>1-TDIST(J5,98,1)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>124</v>
+      </c>
+      <c r="R3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>361.45620000000002</v>
+      </c>
+      <c r="C4">
+        <v>8.8655987032657286</v>
+      </c>
+      <c r="L4">
+        <v>-0.30147178871548591</v>
+      </c>
+      <c r="M4">
+        <v>3.4004673435583756E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.7036898086186002</v>
+      </c>
+      <c r="O4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>954.93219999999997</v>
+      </c>
+      <c r="C5">
+        <v>14.750407713493404</v>
+      </c>
+      <c r="L5">
+        <v>-0.55968931572629033</v>
+      </c>
+      <c r="M5">
+        <v>3.7943989522018211E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.66031019210257869</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>971.02320000000009</v>
+      </c>
+      <c r="C6">
+        <v>6.0707937281541655</v>
+      </c>
+      <c r="L6">
+        <v>-0.2850352941176475</v>
+      </c>
+      <c r="M6">
+        <v>4.6951899023641004E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.62962039214265531</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7">
+        <v>1352.5909999999994</v>
+      </c>
+      <c r="C7">
+        <v>28.585280160193218</v>
+      </c>
+      <c r="E7">
+        <f>B7/B5-1</f>
+        <v>0.41642621329556118</v>
+      </c>
+      <c r="L7">
+        <v>1.2886746698679483</v>
+      </c>
+      <c r="M7">
+        <v>4.5081757556552061E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.87977329266634863</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8">
+        <v>1533.6760000000002</v>
+      </c>
+      <c r="C8">
+        <v>4.846669380268561</v>
+      </c>
+      <c r="L8">
+        <v>-1.7863145258102814E-2</v>
+      </c>
+      <c r="M8">
+        <v>3.685653766858137E-3</v>
+      </c>
+      <c r="N8">
+        <v>0.23450823954512137</v>
+      </c>
+      <c r="O8" t="s">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9">
+        <v>1545.5160000000001</v>
+      </c>
+      <c r="C9">
+        <v>6.438543693876686</v>
+      </c>
+      <c r="L9">
+        <v>-4.85810324129652E-2</v>
+      </c>
+      <c r="M9">
+        <v>7.5453448361572379E-3</v>
+      </c>
+      <c r="N9">
+        <v>-0.14518215068370854</v>
+      </c>
+      <c r="O9" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10">
+        <v>1751.9646</v>
+      </c>
+      <c r="C10">
+        <v>11.362515388732533</v>
+      </c>
+      <c r="L10">
+        <v>0.35175174069627968</v>
+      </c>
+      <c r="M10">
+        <v>3.095720697945888E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.62097634484205255</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>1792.8894</v>
+      </c>
+      <c r="C11">
+        <v>12.99067254</v>
+      </c>
+      <c r="L11">
+        <v>0.22224681900000001</v>
+      </c>
+      <c r="M11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.24589059299999999</v>
+      </c>
+      <c r="O11" t="s">
+        <v>38</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" t="s">
+        <v>24</v>
+      </c>
+      <c r="T11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="C12">
+        <v>24.721538189380109</v>
+      </c>
+      <c r="L12">
+        <v>0.84584969987995262</v>
+      </c>
+      <c r="M12">
+        <v>3.4215091852306874E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.34832118306774196</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>77</v>
+      </c>
+      <c r="S12" t="s">
+        <v>49</v>
+      </c>
+      <c r="T12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f t="shared" ref="C15:C23" si="0">B4+C4</f>
+        <v>370.32179870326576</v>
+      </c>
+      <c r="D15">
+        <f>B4</f>
+        <v>361.45620000000002</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E23" si="1">B4-C4</f>
+        <v>352.59060129673429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>969.68260771349333</v>
+      </c>
+      <c r="D16">
+        <f>B5</f>
+        <v>954.93219999999997</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>940.18179228650661</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>977.09399372815426</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:D23" si="2">B6</f>
+        <v>971.02320000000009</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>964.95240627184592</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1381.1762801601926</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>1352.5909999999994</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1324.0057198398063</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1538.5226693802688</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>1533.6760000000002</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>1528.8293306197315</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>1551.9545436938768</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>1545.5160000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>1539.0774563061234</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>1763.3271153887326</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1751.9646</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>1740.6020846112674</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1805.8800725400001</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>1792.8894</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>1779.8987274599999</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1837.5199381893797</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>1812.7983999999997</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>1788.0768618106197</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A4:T27">
+    <sortCondition ref="P4:P27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="9"/>
-    <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="11"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="12" max="17" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="L1" t="s">
         <v>3</v>
       </c>
@@ -36993,7 +40557,7 @@
       <c r="D2" t="s">
         <v>118</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>119</v>
       </c>
       <c r="F2" t="s">
@@ -37005,8 +40569,8 @@
       <c r="H2" t="s">
         <v>111</v>
       </c>
-      <c r="I2" t="s">
-        <v>117</v>
+      <c r="I2" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="J2" t="s">
         <v>119</v>
@@ -37015,7 +40579,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -37028,7 +40592,7 @@
       <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F3" t="s">
@@ -37108,10 +40672,10 @@
         <v>14.750407713493404</v>
       </c>
       <c r="D5" s="9">
-        <f t="shared" ref="D5:D9" si="0">B5-B4</f>
+        <f t="shared" ref="D5:D6" si="0">B5-B4</f>
         <v>593.47599999999989</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <f>D5/B4</f>
         <v>1.641902947023733</v>
       </c>
@@ -37124,10 +40688,10 @@
         <v>243.84573334221759</v>
       </c>
       <c r="H5" s="11">
-        <f t="shared" ref="H5:H9" si="1">1-TDIST(G5,98,2)</f>
+        <f t="shared" ref="H5:H7" si="1">1-TDIST(G5,98,2)</f>
         <v>1</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <f>SQRT(F5*F5/B4/B4+D5*D5*C4*C4/B4/B4/B4/B4)</f>
         <v>4.0830716235903584E-2</v>
       </c>
@@ -37169,35 +40733,35 @@
         <v>28.585280160193218</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D7" si="2">B6-B5</f>
         <v>397.65879999999947</v>
       </c>
-      <c r="E6" s="17">
-        <f>D6/B5</f>
+      <c r="E6" s="11">
+        <f t="shared" ref="E6:E7" si="3">D6/B5</f>
         <v>0.41642621329556118</v>
       </c>
       <c r="F6" s="9">
-        <f>SQRT((C5*C5+C6*C6)/50)</f>
+        <f t="shared" ref="F6:F7" si="4">SQRT((C5*C5+C6*C6)/50)</f>
         <v>4.549049943781716</v>
       </c>
       <c r="G6" s="8">
-        <f>D6/F6</f>
+        <f t="shared" ref="G6:G7" si="5">D6/F6</f>
         <v>87.415791190328804</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H6:H7" si="6">1-TDIST(G6,98,2)</f>
         <v>1</v>
       </c>
-      <c r="I6" s="14">
-        <f>SQRT(F6*F6/B5/B5+D6*D6*C5*C5/B5/B5/B5/B5)</f>
+      <c r="I6" s="11">
+        <f t="shared" ref="I6:I7" si="7">SQRT(F6*F6/B5/B5+D6*D6*C5*C5/B5/B5/B5/B5)</f>
         <v>8.004269768445281E-3</v>
       </c>
       <c r="J6" s="9">
-        <f>E6/I6</f>
+        <f t="shared" ref="J6:J7" si="8">E6/I6</f>
         <v>52.025509552065763</v>
       </c>
       <c r="K6" s="11">
-        <f>1-TDIST(J6,98,1)</f>
+        <f t="shared" ref="K6:K7" si="9">1-TDIST(J6,98,1)</f>
         <v>1</v>
       </c>
       <c r="L6" t="s">
@@ -37221,44 +40785,44 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B7" s="9">
-        <v>1545.5160000000001</v>
+        <v>1812.7983999999997</v>
       </c>
       <c r="C7" s="9">
-        <v>6.438543693876686</v>
+        <v>24.721538189380109</v>
       </c>
       <c r="D7" s="9">
-        <f t="shared" si="0"/>
-        <v>192.92500000000064</v>
-      </c>
-      <c r="E7" s="17">
-        <f>D7/B6</f>
-        <v>0.14263365644160039</v>
+        <f t="shared" si="2"/>
+        <v>460.20740000000023</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="3"/>
+        <v>0.34024135899174285</v>
       </c>
       <c r="F7" s="9">
-        <f>SQRT((C6*C6+C7*C7)/50)</f>
-        <v>4.1438462489206698</v>
+        <f t="shared" si="4"/>
+        <v>5.3446659246125297</v>
       </c>
       <c r="G7" s="8">
-        <f>D7/F7</f>
-        <v>46.556987979525303</v>
+        <f t="shared" si="5"/>
+        <v>86.105924391029873</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I7" s="14">
-        <f>SQRT(F7*F7/B6/B6+D7*D7*C6*C6/B6/B6/B6/B6)</f>
-        <v>4.2979472139352062E-3</v>
+      <c r="I7" s="11">
+        <f t="shared" si="7"/>
+        <v>8.204755903329362E-3</v>
       </c>
       <c r="J7" s="9">
-        <f>E7/I7</f>
-        <v>33.186460731565113</v>
+        <f t="shared" si="8"/>
+        <v>41.46879724400798</v>
       </c>
       <c r="K7" s="11">
-        <f>1-TDIST(J7,98,1)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L7" t="s">
@@ -37271,134 +40835,12 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" t="s">
         <v>49</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1792.8894</v>
-      </c>
-      <c r="C8" s="9">
-        <v>12.99067254</v>
-      </c>
-      <c r="D8" s="9">
-        <f t="shared" si="0"/>
-        <v>247.37339999999995</v>
-      </c>
-      <c r="E8" s="17">
-        <f>D8/B7</f>
-        <v>0.16005877648629968</v>
-      </c>
-      <c r="F8" s="9">
-        <f>SQRT((C7*C7+C8*C8)/50)</f>
-        <v>2.0504263846306179</v>
-      </c>
-      <c r="G8" s="8">
-        <f>D8/F8</f>
-        <v>120.64485799355532</v>
-      </c>
-      <c r="H8" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="14">
-        <f>SQRT(F8*F8/B7/B7+D8*D8*C7*C7/B7/B7/B7/B7)</f>
-        <v>1.4848348336707453E-3</v>
-      </c>
-      <c r="J8" s="9">
-        <f>E8/I8</f>
-        <v>107.79567724082092</v>
-      </c>
-      <c r="K8" s="11">
-        <f>1-TDIST(J8,98,1)</f>
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
-      </c>
-      <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1812.7983999999997</v>
-      </c>
-      <c r="C9" s="9">
-        <v>24.721538189380109</v>
-      </c>
-      <c r="D9" s="9">
-        <f t="shared" si="0"/>
-        <v>19.908999999999651</v>
-      </c>
-      <c r="E9" s="17">
-        <f>D9/B8</f>
-        <v>1.1104421722834466E-2</v>
-      </c>
-      <c r="F9" s="9">
-        <f>SQRT((C8*C8+C9*C9)/50)</f>
-        <v>3.949460782158722</v>
-      </c>
-      <c r="G9" s="8">
-        <f>D9/F9</f>
-        <v>5.0409413077188878</v>
-      </c>
-      <c r="H9" s="11">
-        <f t="shared" si="1"/>
-        <v>0.99999787819938424</v>
-      </c>
-      <c r="I9" s="14">
-        <f>SQRT(F9*F9/B8/B8+D9*D9*C8*C8/B8/B8/B8/B8)</f>
-        <v>2.2043157477316514E-3</v>
-      </c>
-      <c r="J9" s="9">
-        <f>E9/I9</f>
-        <v>5.0375821768099502</v>
-      </c>
-      <c r="K9" s="11">
-        <f>1-TDIST(J9,98,1)</f>
-        <v>0.99999892421841152</v>
-      </c>
-      <c r="L9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -37406,21 +40848,17 @@
   <sortState ref="A4:Q9">
     <sortCondition ref="B4:B9"/>
   </sortState>
-  <mergeCells count="3">
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38245,1273 +41683,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="9"/>
-    <col min="14" max="20" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" t="s">
-        <v>111</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N2" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H3" t="s">
-        <v>114</v>
-      </c>
-      <c r="I3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J3" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9">
-        <v>356.92099999999994</v>
-      </c>
-      <c r="E4" s="9">
-        <v>3.7492944914574844</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4">
-        <v>-0.12095798319327702</v>
-      </c>
-      <c r="O4">
-        <v>3.2261531727868178E-2</v>
-      </c>
-      <c r="P4">
-        <v>0.62334668548942795</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>361.45620000000002</v>
-      </c>
-      <c r="E5" s="9">
-        <v>8.8655987032657286</v>
-      </c>
-      <c r="F5" s="9">
-        <f t="shared" ref="F5" si="0">D5-D4</f>
-        <v>4.5352000000000885</v>
-      </c>
-      <c r="G5" s="17">
-        <f>F5/D4</f>
-        <v>1.2706453248758378E-2</v>
-      </c>
-      <c r="H5" s="9">
-        <f>SQRT((E4*E4+E5*E5)/50)</f>
-        <v>1.3612938665183238</v>
-      </c>
-      <c r="I5" s="8">
-        <f>F5/H5</f>
-        <v>3.3315363504864819</v>
-      </c>
-      <c r="J5" s="11">
-        <f t="shared" ref="J5:J7" si="1">1-TDIST(I5,98,2)</f>
-        <v>0.99878101272725894</v>
-      </c>
-      <c r="K5" s="14">
-        <f>SQRT(H5*H5/D4/D4+F5*F5*E4*E4/D4/D4/D4/D4)</f>
-        <v>3.8163269384007374E-3</v>
-      </c>
-      <c r="L5" s="9">
-        <f>G5/K5</f>
-        <v>3.3294980890927337</v>
-      </c>
-      <c r="M5" s="11">
-        <f>1-TDIST(L5,98,1)</f>
-        <v>0.99938648904078486</v>
-      </c>
-      <c r="N5">
-        <v>-0.30147178871548591</v>
-      </c>
-      <c r="O5">
-        <v>3.4004673435583756E-2</v>
-      </c>
-      <c r="P5">
-        <v>0.7036898086186002</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S5" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>356.92099999999994</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3.7492944914574844</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6">
-        <v>-0.12095798319327702</v>
-      </c>
-      <c r="O6">
-        <v>3.2261531727868178E-2</v>
-      </c>
-      <c r="P6">
-        <v>0.62334668548942795</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" t="s">
-        <v>49</v>
-      </c>
-      <c r="T6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="9">
-        <v>373.12179999999984</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.4300131153958293</v>
-      </c>
-      <c r="F7" s="9">
-        <f t="shared" ref="F7" si="2">D7-D6</f>
-        <v>16.200799999999902</v>
-      </c>
-      <c r="G7" s="17">
-        <f>F7/D6</f>
-        <v>4.5390436539177868E-2</v>
-      </c>
-      <c r="H7" s="9">
-        <f>SQRT((E6*E6+E7*E7)/50)</f>
-        <v>0.56748826761224802</v>
-      </c>
-      <c r="I7" s="8">
-        <f>F7/H7</f>
-        <v>28.548255399474698</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K7" s="14">
-        <f>SQRT(H7*H7/D6/D6+F7*F7*E6*E6/D6/D6/D6/D6)</f>
-        <v>1.6599097643706414E-3</v>
-      </c>
-      <c r="L7" s="9">
-        <f>G7/K7</f>
-        <v>27.34512291780376</v>
-      </c>
-      <c r="M7" s="11">
-        <f>1-TDIST(L7,98,1)</f>
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>1.9318607442977569E-2</v>
-      </c>
-      <c r="O7">
-        <v>1.3509391791578189E-2</v>
-      </c>
-      <c r="P7">
-        <v>0.33917570343090958</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R7" t="s">
-        <v>45</v>
-      </c>
-      <c r="S7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="9">
-        <v>990.45060000000024</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2.7575420954471848</v>
-      </c>
-      <c r="E4">
-        <f>C4*C4</f>
-        <v>7.6040384081632508</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="9">
-        <v>992.9047999999998</v>
-      </c>
-      <c r="C5" s="9">
-        <v>3.1992857876439285</v>
-      </c>
-      <c r="E5">
-        <f>C5*C5</f>
-        <v>10.235429551020431</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1889.0116000000003</v>
-      </c>
-      <c r="C6" s="9">
-        <v>5.1441991741044797</v>
-      </c>
-      <c r="E6">
-        <f>C6*C6</f>
-        <v>26.462785142857211</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1773.2163999999996</v>
-      </c>
-      <c r="C7" s="9">
-        <v>6.6778420564290428</v>
-      </c>
-      <c r="E7">
-        <f>C7*C7</f>
-        <v>44.593574530612464</v>
-      </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1912.3876</v>
-      </c>
-      <c r="C8" s="9">
-        <v>9.2397525278283297</v>
-      </c>
-      <c r="E8">
-        <f>C8*C8</f>
-        <v>85.373026775510013</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1564.5955999999999</v>
-      </c>
-      <c r="C9" s="9">
-        <v>7.2093055398801642</v>
-      </c>
-      <c r="E9">
-        <f>C9*C9</f>
-        <v>51.974086367346828</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1582.4970000000003</v>
-      </c>
-      <c r="C10" s="9">
-        <v>5.2254054622486192</v>
-      </c>
-      <c r="E10">
-        <f>C10*C10</f>
-        <v>27.304862244897706</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-      <c r="J10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" t="s">
-        <v>84</v>
-      </c>
-      <c r="N10" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="U10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="X10" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="9">
-        <v>999.27219999999988</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2.951710877108523</v>
-      </c>
-      <c r="E11">
-        <f>C11*C11</f>
-        <v>8.7125971020407658</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" t="s">
-        <v>83</v>
-      </c>
-      <c r="N11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O11" s="9">
-        <f>AVERAGE(B12:B19)</f>
-        <v>1415.7325749999998</v>
-      </c>
-      <c r="P11" s="9">
-        <f>SQRT(SUM(E12:E19)/COUNT(C12:C19))</f>
-        <v>12.549573139646288</v>
-      </c>
-      <c r="Q11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="9">
-        <v>971.02320000000009</v>
-      </c>
-      <c r="C12" s="9">
-        <v>6.0707937281541655</v>
-      </c>
-      <c r="E12">
-        <f>C12*C12</f>
-        <v>36.854536489795954</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" t="s">
-        <v>83</v>
-      </c>
-      <c r="N12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="9">
-        <f>AVERAGE(B4:B11)</f>
-        <v>1463.0419750000001</v>
-      </c>
-      <c r="P12" s="9">
-        <f>SQRT(SUM(E4:E11)/COUNT(E4:E11))</f>
-        <v>5.7256047728869728</v>
-      </c>
-      <c r="Q12" s="9">
-        <f>O12-O11</f>
-        <v>47.309400000000323</v>
-      </c>
-      <c r="S12" s="17">
-        <f>Q12/O11</f>
-        <v>3.3416904318953271E-2</v>
-      </c>
-      <c r="T12" s="9">
-        <f>SQRT((P11*P11+P12*P12)/8)</f>
-        <v>4.8769141883295122</v>
-      </c>
-      <c r="U12" s="8">
-        <f>Q12/T12</f>
-        <v>9.7006832954354678</v>
-      </c>
-      <c r="V12" s="11">
-        <f t="shared" ref="V12" si="0">1-TDIST(U12,98,2)</f>
-        <v>0.99999999999999944</v>
-      </c>
-      <c r="W12" s="14">
-        <f>SQRT(T12*T12/O11/O11+Q12*Q12*P11*P11/O11/O11/O11/O11)</f>
-        <v>3.4575115919125059E-3</v>
-      </c>
-      <c r="X12" s="9">
-        <f>S12/W12</f>
-        <v>9.6650158446667334</v>
-      </c>
-      <c r="Y12" s="11">
-        <f>1-TDIST(X12,98,1)</f>
-        <v>0.99999999999999967</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="9">
-        <v>954.93219999999997</v>
-      </c>
-      <c r="C13" s="9">
-        <v>14.750407713493404</v>
-      </c>
-      <c r="E13">
-        <f>C13*C13</f>
-        <v>217.57452771428572</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="S13" s="17">
-        <f>-Q12/O12</f>
-        <v>-3.2336324458497046E-2</v>
-      </c>
-      <c r="W13" s="21">
-        <f>W12/S12*S13</f>
-        <v>-3.3457083752574082E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="9">
-        <v>1792.8894</v>
-      </c>
-      <c r="C14" s="9">
-        <v>12.99067254</v>
-      </c>
-      <c r="E14">
-        <f>C14*C14</f>
-        <v>168.75757304151006</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="9">
-        <v>1751.9646</v>
-      </c>
-      <c r="C15" s="9">
-        <v>11.362515388732533</v>
-      </c>
-      <c r="E15">
-        <f>C15*C15</f>
-        <v>129.1067559591836</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1812.7983999999997</v>
-      </c>
-      <c r="C16" s="9">
-        <v>24.721538189380109</v>
-      </c>
-      <c r="E16">
-        <f>C16*C16</f>
-        <v>611.15445044897911</v>
-      </c>
-      <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J16" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1533.6760000000002</v>
-      </c>
-      <c r="C17" s="9">
-        <v>4.846669380268561</v>
-      </c>
-      <c r="E17">
-        <f>C17*C17</f>
-        <v>23.490204081632836</v>
-      </c>
-      <c r="F17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="9">
-        <v>1545.5160000000001</v>
-      </c>
-      <c r="C18" s="9">
-        <v>6.438543693876686</v>
-      </c>
-      <c r="E18">
-        <f>C18*C18</f>
-        <v>41.454844897959241</v>
-      </c>
-      <c r="F18" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="9">
-        <v>963.06079999999986</v>
-      </c>
-      <c r="C19" s="9">
-        <v>5.6161726527330202</v>
-      </c>
-      <c r="E19">
-        <f>C19*C19</f>
-        <v>31.541395265306249</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" t="s">
-        <v>125</v>
-      </c>
-      <c r="J19" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A4:K19">
-    <sortCondition ref="H4:H19"/>
-    <sortCondition ref="A4:A19"/>
-    <sortCondition ref="J4:J19"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2">
-        <v>1792.8894</v>
-      </c>
-      <c r="D2">
-        <v>12.99067254</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <f>C3-C2</f>
-        <v>19.908999999999651</v>
-      </c>
-      <c r="H2">
-        <f>SQRT(2*(D2*D2+D3*D3)/2/F2)</f>
-        <v>3.949460782158722</v>
-      </c>
-      <c r="I2">
-        <f>G2/H2</f>
-        <v>5.0409413077188878</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3">
-        <v>1812.7983999999997</v>
-      </c>
-      <c r="D3">
-        <v>24.721538189380109</v>
-      </c>
-      <c r="G3" s="11">
-        <f>G2/C2</f>
-        <v>1.1104421722834466E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>1889.0116000000003</v>
-      </c>
-      <c r="D5">
-        <v>5.1441991741044797</v>
-      </c>
-      <c r="F5">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <f>C6-C5</f>
-        <v>23.375999999999749</v>
-      </c>
-      <c r="H5">
-        <f>SQRT(2*(D5*D5+D6*D6)/2/F5)</f>
-        <v>1.4955655245984192</v>
-      </c>
-      <c r="I5">
-        <f>G5/H5</f>
-        <v>15.630207848149308</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6">
-        <v>1912.3876</v>
-      </c>
-      <c r="D6">
-        <v>9.2397525278283297</v>
-      </c>
-      <c r="G6" s="11">
-        <f>G5/C5</f>
-        <v>1.237472549136265E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7">
-        <f>F2-1+F5-1</f>
-        <v>98</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>